--- a/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
+++ b/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\homelearn-hybrid-list\doc\02_wbs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="7740" yWindow="735" windowWidth="20610" windowHeight="14100" activeTab="2"/>
   </bookViews>
@@ -16,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">퍼블리싱!$A$1:$AC$158</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$H$43</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1522,14 +1527,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1537,7 +1539,19 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1549,16 +1563,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1874,7 +1879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2472,20 +2477,20 @@
     </row>
     <row r="2" spans="1:54" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
       <c r="N2" s="11"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -2642,26 +2647,26 @@
     </row>
     <row r="5" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="48"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="11"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -2705,26 +2710,26 @@
     </row>
     <row r="6" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="50" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="47" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="11"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -2768,18 +2773,18 @@
     </row>
     <row r="7" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
       <c r="N7" s="11"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -2823,18 +2828,18 @@
     </row>
     <row r="8" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
       <c r="N8" s="11"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -2878,18 +2883,18 @@
     </row>
     <row r="9" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
       <c r="N9" s="11"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -3924,6 +3929,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -3940,11 +3950,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3961,8 +3966,8 @@
   </sheetPr>
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4008,13 +4013,13 @@
     </row>
     <row r="2" spans="1:29" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -4047,12 +4052,12 @@
       <c r="J3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="52">
         <f>ROUND((COUNTIF(J5:J29,"O")/COUNTA(J5:J29))*100,1)</f>
         <v>16</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -4126,10 +4131,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>192</v>
       </c>
       <c r="D5" s="29"/>
@@ -4169,8 +4174,8 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
@@ -4208,8 +4213,8 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="33"/>
@@ -4249,8 +4254,8 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
@@ -4288,9 +4293,9 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="53" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="29"/>
@@ -4329,9 +4334,9 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29" t="s">
@@ -4368,9 +4373,9 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29" t="s">
@@ -4407,9 +4412,9 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29" t="s">
@@ -4446,8 +4451,8 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="29" t="s">
         <v>30</v>
       </c>
@@ -4489,8 +4494,8 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="29" t="s">
         <v>33</v>
       </c>
@@ -4530,8 +4535,8 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="55" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="29"/>
@@ -4571,8 +4576,8 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -4610,8 +4615,8 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="29" t="s">
         <v>40</v>
       </c>
@@ -4651,9 +4656,9 @@
     </row>
     <row r="18" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="53" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="29"/>
@@ -4692,9 +4697,9 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29" t="s">
@@ -4731,9 +4736,9 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29" t="s">
@@ -4770,9 +4775,9 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29" t="s">
@@ -4809,9 +4814,9 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="53" t="s">
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="29"/>
@@ -4850,9 +4855,9 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="29" t="s">
@@ -4889,10 +4894,10 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="53" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="56" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="29"/>
@@ -4930,10 +4935,10 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29" t="s">
         <v>84</v>
@@ -4969,10 +4974,10 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29" t="s">
         <v>45</v>
@@ -5008,10 +5013,10 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29" t="s">
         <v>44</v>
@@ -5047,10 +5052,10 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29" t="s">
         <v>47</v>
@@ -5086,9 +5091,9 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="29" t="s">
         <v>48</v>
       </c>
@@ -5126,8 +5131,8 @@
       <c r="AC29" s="17"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="29" t="s">
         <v>52</v>
       </c>
@@ -5150,8 +5155,8 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="29" t="s">
         <v>54</v>
       </c>
@@ -5174,8 +5179,8 @@
       <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="29" t="s">
         <v>57</v>
       </c>
@@ -5198,8 +5203,8 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
       <c r="D33" s="29" t="s">
         <v>58</v>
       </c>
@@ -5222,8 +5227,8 @@
       <c r="M33" s="29"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="29" t="s">
         <v>61</v>
       </c>
@@ -5246,8 +5251,8 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="29" t="s">
         <v>62</v>
       </c>
@@ -5270,8 +5275,8 @@
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="56"/>
-      <c r="C36" s="56" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="55" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="29"/>
@@ -5294,8 +5299,8 @@
       <c r="M36" s="32"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
@@ -5316,9 +5321,9 @@
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="53" t="s">
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="56" t="s">
         <v>68</v>
       </c>
       <c r="E38" s="29"/>
@@ -5340,9 +5345,9 @@
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="54"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41" t="s">
@@ -5362,9 +5367,9 @@
       <c r="M39" s="32"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29" t="s">
@@ -5384,8 +5389,8 @@
       <c r="M40" s="32"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="29" t="s">
         <v>73</v>
       </c>
@@ -5408,9 +5413,9 @@
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="53" t="s">
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="56" t="s">
         <v>72</v>
       </c>
       <c r="E42" s="29"/>
@@ -5432,9 +5437,9 @@
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="54"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
       <c r="G43" s="29" t="s">
@@ -5454,9 +5459,9 @@
       <c r="M43" s="32"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="54"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
       <c r="G44" s="29" t="s">
@@ -5476,9 +5481,9 @@
       <c r="M44" s="32"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="54"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="29" t="s">
@@ -5498,9 +5503,9 @@
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
       <c r="G46" s="41" t="s">
@@ -5520,9 +5525,9 @@
       <c r="M46" s="41"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="53" t="s">
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="56" t="s">
         <v>76</v>
       </c>
       <c r="E47" s="31"/>
@@ -5544,9 +5549,9 @@
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="54"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
       <c r="G48" s="29" t="s">
@@ -5566,9 +5571,9 @@
       <c r="M48" s="29"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="58"/>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
       <c r="G49" s="29" t="s">
@@ -5588,9 +5593,9 @@
       <c r="M49" s="29"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="53" t="s">
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="56" t="s">
         <v>87</v>
       </c>
       <c r="E50" s="31"/>
@@ -5612,9 +5617,9 @@
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="54"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
       <c r="G51" s="29" t="s">
@@ -5634,9 +5639,9 @@
       <c r="M51" s="29"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="54"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="57"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="29" t="s">
@@ -5656,9 +5661,9 @@
       <c r="M52" s="32"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="54"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
       <c r="G53" s="29" t="s">
@@ -5678,9 +5683,9 @@
       <c r="M53" s="32"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="54"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="31"/>
       <c r="F54" s="31"/>
       <c r="G54" s="29" t="s">
@@ -5700,9 +5705,9 @@
       <c r="M54" s="32"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="54"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="31"/>
       <c r="F55" s="31"/>
       <c r="G55" s="29" t="s">
@@ -5722,9 +5727,9 @@
       <c r="M55" s="29"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="58"/>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
       <c r="G56" s="29" t="s">
@@ -5744,9 +5749,9 @@
       <c r="M56" s="29"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56" t="s">
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55" t="s">
         <v>92</v>
       </c>
       <c r="E57" s="31"/>
@@ -5768,9 +5773,9 @@
       <c r="M57" s="29"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="31"/>
       <c r="F58" s="31"/>
       <c r="G58" s="29" t="s">
@@ -5790,9 +5795,9 @@
       <c r="M58" s="29"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="31"/>
       <c r="F59" s="31"/>
       <c r="G59" s="29" t="s">
@@ -5812,9 +5817,9 @@
       <c r="M59" s="29"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="31"/>
       <c r="F60" s="31"/>
       <c r="G60" s="29" t="s">
@@ -5834,9 +5839,9 @@
       <c r="M60" s="29"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="53" t="s">
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="56" t="s">
         <v>97</v>
       </c>
       <c r="E61" s="29"/>
@@ -5858,9 +5863,9 @@
       <c r="M61" s="32"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="54"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
       <c r="G62" s="29" t="s">
@@ -5880,9 +5885,9 @@
       <c r="M62" s="32"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="53" t="s">
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E63" s="31"/>
@@ -5904,9 +5909,9 @@
       <c r="M63" s="32"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="54"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
       <c r="G64" s="29" t="s">
@@ -5926,9 +5931,9 @@
       <c r="M64" s="32"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="54"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="29"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29" t="s">
@@ -5948,9 +5953,9 @@
       <c r="M65" s="32"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="54"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="31"/>
       <c r="F66" s="31"/>
       <c r="G66" s="34" t="s">
@@ -5970,9 +5975,9 @@
       <c r="M66" s="32"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="54"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="57"/>
       <c r="E67" s="31"/>
       <c r="F67" s="31"/>
       <c r="G67" s="34" t="s">
@@ -5992,9 +5997,9 @@
       <c r="M67" s="32"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="55"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="31"/>
       <c r="F68" s="31"/>
       <c r="G68" s="34" t="s">
@@ -6014,9 +6019,9 @@
       <c r="M68" s="32"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="53" t="s">
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="56" t="s">
         <v>107</v>
       </c>
       <c r="E69" s="31"/>
@@ -6038,9 +6043,9 @@
       <c r="M69" s="32"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="54"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="31"/>
       <c r="F70" s="31"/>
       <c r="G70" s="34" t="s">
@@ -6060,9 +6065,9 @@
       <c r="M70" s="32"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="55"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="58"/>
       <c r="E71" s="31"/>
       <c r="F71" s="31"/>
       <c r="G71" s="34" t="s">
@@ -6082,9 +6087,9 @@
       <c r="M71" s="32"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="53" t="s">
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="56" t="s">
         <v>111</v>
       </c>
       <c r="E72" s="31"/>
@@ -6106,9 +6111,9 @@
       <c r="M72" s="32"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="54"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="31"/>
       <c r="F73" s="31"/>
       <c r="G73" s="34" t="s">
@@ -6128,9 +6133,9 @@
       <c r="M73" s="32"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="54"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="31"/>
       <c r="F74" s="31"/>
       <c r="G74" s="34" t="s">
@@ -6150,9 +6155,9 @@
       <c r="M74" s="32"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="55"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="58"/>
       <c r="E75" s="31"/>
       <c r="F75" s="31"/>
       <c r="G75" s="34" t="s">
@@ -6172,8 +6177,8 @@
       <c r="M75" s="32"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
       <c r="D76" s="40" t="s">
         <v>116</v>
       </c>
@@ -6196,8 +6201,8 @@
       <c r="M76" s="32"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="56"/>
-      <c r="C77" s="56" t="s">
+      <c r="B77" s="55"/>
+      <c r="C77" s="55" t="s">
         <v>118</v>
       </c>
       <c r="D77" s="31"/>
@@ -6220,8 +6225,8 @@
       <c r="M77" s="32"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
       <c r="F78" s="31"/>
@@ -6242,8 +6247,8 @@
       <c r="M78" s="32"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
       <c r="D79" s="31"/>
       <c r="E79" s="31"/>
       <c r="F79" s="31"/>
@@ -6264,9 +6269,9 @@
       <c r="M79" s="32"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="56"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="53" t="s">
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="56" t="s">
         <v>122</v>
       </c>
       <c r="E80" s="45"/>
@@ -6288,9 +6293,9 @@
       <c r="M80" s="32"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B81" s="56"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="54"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="57"/>
       <c r="E81" s="45"/>
       <c r="F81" s="29"/>
       <c r="G81" s="23" t="s">
@@ -6310,9 +6315,9 @@
       <c r="M81" s="32"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="54"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="57"/>
       <c r="E82" s="45"/>
       <c r="F82" s="29"/>
       <c r="G82" s="35" t="s">
@@ -6332,9 +6337,9 @@
       <c r="M82" s="32"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56" t="s">
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55" t="s">
         <v>123</v>
       </c>
       <c r="E83" s="40" t="s">
@@ -6360,10 +6365,10 @@
       <c r="M83" s="32"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="53" t="s">
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="56" t="s">
         <v>125</v>
       </c>
       <c r="F84" s="31"/>
@@ -6384,10 +6389,10 @@
       <c r="M84" s="32"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B85" s="56"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="54"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="57"/>
       <c r="F85" s="31"/>
       <c r="G85" s="34" t="s">
         <v>128</v>
@@ -6406,10 +6411,10 @@
       <c r="M85" s="32"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="56"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="54"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="57"/>
       <c r="F86" s="31"/>
       <c r="G86" s="34" t="s">
         <v>129</v>
@@ -6428,10 +6433,10 @@
       <c r="M86" s="32"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="54"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="57"/>
       <c r="F87" s="31"/>
       <c r="G87" s="34" t="s">
         <v>130</v>
@@ -6450,10 +6455,10 @@
       <c r="M87" s="32"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="56"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="54"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="57"/>
       <c r="F88" s="31"/>
       <c r="G88" s="34" t="s">
         <v>131</v>
@@ -6472,10 +6477,10 @@
       <c r="M88" s="32"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B89" s="56"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="54"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="57"/>
       <c r="F89" s="31"/>
       <c r="G89" s="34" t="s">
         <v>132</v>
@@ -6494,10 +6499,10 @@
       <c r="M89" s="32"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B90" s="56"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="55"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="58"/>
       <c r="F90" s="31"/>
       <c r="G90" s="34" t="s">
         <v>133</v>
@@ -6516,9 +6521,9 @@
       <c r="M90" s="32"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B91" s="56"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="33" t="s">
         <v>126</v>
       </c>
@@ -6540,13 +6545,13 @@
       <c r="M91" s="32"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="56"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="53" t="s">
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="F92" s="53" t="s">
+      <c r="F92" s="56" t="s">
         <v>135</v>
       </c>
       <c r="G92" s="28" t="s">
@@ -6566,11 +6571,11 @@
       <c r="M92" s="27"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="56"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="54"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
       <c r="G93" s="28" t="s">
         <v>137</v>
       </c>
@@ -6588,11 +6593,11 @@
       <c r="M93" s="27"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B94" s="56"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="55"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="58"/>
       <c r="G94" s="28" t="s">
         <v>138</v>
       </c>
@@ -6610,11 +6615,11 @@
       <c r="M94" s="27"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B95" s="56"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="53" t="s">
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="56" t="s">
         <v>32</v>
       </c>
       <c r="G95" s="28" t="s">
@@ -6634,11 +6639,11 @@
       <c r="M95" s="27"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B96" s="56"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
       <c r="G96" s="28" t="s">
         <v>140</v>
       </c>
@@ -6656,9 +6661,9 @@
       <c r="M96" s="27"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B97" s="56"/>
-      <c r="C97" s="56"/>
-      <c r="D97" s="53" t="s">
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="56" t="s">
         <v>141</v>
       </c>
       <c r="E97" s="25"/>
@@ -6680,10 +6685,10 @@
       <c r="M97" s="27"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B98" s="56"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="53" t="s">
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="56" t="s">
         <v>135</v>
       </c>
       <c r="F98" s="25"/>
@@ -6704,10 +6709,10 @@
       <c r="M98" s="27"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B99" s="56"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
       <c r="F99" s="25"/>
       <c r="G99" s="28" t="s">
         <v>146</v>
@@ -6726,10 +6731,10 @@
       <c r="M99" s="27"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B100" s="56"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="57"/>
       <c r="F100" s="25"/>
       <c r="G100" s="28" t="s">
         <v>145</v>
@@ -6748,10 +6753,10 @@
       <c r="M100" s="27"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B101" s="56"/>
-      <c r="C101" s="56"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="55"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="58"/>
       <c r="F101" s="25"/>
       <c r="G101" s="28" t="s">
         <v>144</v>
@@ -6770,10 +6775,10 @@
       <c r="M101" s="27"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B102" s="56"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="53" t="s">
+      <c r="B102" s="55"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="56" t="s">
         <v>32</v>
       </c>
       <c r="F102" s="25"/>
@@ -6794,10 +6799,10 @@
       <c r="M102" s="27"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B103" s="56"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="55"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
       <c r="F103" s="25"/>
       <c r="G103" s="28" t="s">
         <v>148</v>
@@ -6816,10 +6821,10 @@
       <c r="M103" s="27"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B104" s="56"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="55"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="57"/>
       <c r="F104" s="25"/>
       <c r="G104" s="28" t="s">
         <v>149</v>
@@ -6838,10 +6843,10 @@
       <c r="M104" s="27"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B105" s="56"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="54"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="55"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
       <c r="F105" s="25"/>
       <c r="G105" s="28" t="s">
         <v>150</v>
@@ -6860,10 +6865,10 @@
       <c r="M105" s="27"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B106" s="56"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="55"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="58"/>
       <c r="F106" s="25"/>
       <c r="G106" s="28" t="s">
         <v>151</v>
@@ -6882,8 +6887,8 @@
       <c r="M106" s="27"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B107" s="56"/>
-      <c r="C107" s="56"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="55"/>
       <c r="D107" s="29" t="s">
         <v>152</v>
       </c>
@@ -6906,12 +6911,12 @@
       <c r="M107" s="27"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B108" s="56"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="53" t="s">
+      <c r="B108" s="55"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="E108" s="53" t="s">
+      <c r="E108" s="56" t="s">
         <v>135</v>
       </c>
       <c r="F108" s="25"/>
@@ -6932,10 +6937,10 @@
       <c r="M108" s="27"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B109" s="56"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="57"/>
       <c r="F109" s="25"/>
       <c r="G109" s="28" t="s">
         <v>156</v>
@@ -6954,10 +6959,10 @@
       <c r="M109" s="27"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B110" s="56"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="54"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="57"/>
       <c r="F110" s="25"/>
       <c r="G110" s="28" t="s">
         <v>157</v>
@@ -6976,10 +6981,10 @@
       <c r="M110" s="27"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B111" s="56"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="55"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="58"/>
       <c r="F111" s="25"/>
       <c r="G111" s="28" t="s">
         <v>158</v>
@@ -6998,10 +7003,10 @@
       <c r="M111" s="27"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B112" s="56"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="56" t="s">
+      <c r="B112" s="55"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="55" t="s">
         <v>32</v>
       </c>
       <c r="F112" s="25"/>
@@ -7022,10 +7027,10 @@
       <c r="M112" s="27"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B113" s="56"/>
-      <c r="C113" s="56"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="56"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="55"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="55"/>
       <c r="F113" s="25"/>
       <c r="G113" s="28" t="s">
         <v>160</v>
@@ -7044,10 +7049,10 @@
       <c r="M113" s="27"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B114" s="56"/>
-      <c r="C114" s="56"/>
-      <c r="D114" s="54"/>
-      <c r="E114" s="56"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="55"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="55"/>
       <c r="F114" s="25"/>
       <c r="G114" s="28" t="s">
         <v>162</v>
@@ -7066,10 +7071,10 @@
       <c r="M114" s="27"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B115" s="56"/>
-      <c r="C115" s="56"/>
-      <c r="D115" s="54"/>
-      <c r="E115" s="56"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="55"/>
+      <c r="D115" s="57"/>
+      <c r="E115" s="55"/>
       <c r="F115" s="25"/>
       <c r="G115" s="28" t="s">
         <v>161</v>
@@ -7088,10 +7093,10 @@
       <c r="M115" s="27"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B116" s="56"/>
-      <c r="C116" s="56"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="56"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="55"/>
+      <c r="D116" s="57"/>
+      <c r="E116" s="55"/>
       <c r="F116" s="25"/>
       <c r="G116" s="28" t="s">
         <v>163</v>
@@ -7110,10 +7115,10 @@
       <c r="M116" s="27"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B117" s="56"/>
-      <c r="C117" s="56"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="56"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="57"/>
+      <c r="E117" s="55"/>
       <c r="F117" s="25"/>
       <c r="G117" s="28" t="s">
         <v>164</v>
@@ -7132,10 +7137,10 @@
       <c r="M117" s="27"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B118" s="56"/>
-      <c r="C118" s="56"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="56"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="55"/>
       <c r="F118" s="25"/>
       <c r="G118" s="28" t="s">
         <v>158</v>
@@ -7154,12 +7159,12 @@
       <c r="M118" s="27"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B119" s="56"/>
-      <c r="C119" s="56"/>
-      <c r="D119" s="53" t="s">
+      <c r="B119" s="55"/>
+      <c r="C119" s="55"/>
+      <c r="D119" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="E119" s="56" t="s">
+      <c r="E119" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F119" s="25"/>
@@ -7180,10 +7185,10 @@
       <c r="M119" s="27"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B120" s="56"/>
-      <c r="C120" s="56"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="56"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="55"/>
       <c r="F120" s="25"/>
       <c r="G120" s="28" t="s">
         <v>168</v>
@@ -7202,10 +7207,10 @@
       <c r="M120" s="27"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B121" s="56"/>
-      <c r="C121" s="56"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="56"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="55"/>
       <c r="F121" s="25"/>
       <c r="G121" s="28" t="s">
         <v>167</v>
@@ -7224,10 +7229,10 @@
       <c r="M121" s="27"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B122" s="56"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="53" t="s">
+      <c r="B122" s="55"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="57"/>
+      <c r="E122" s="56" t="s">
         <v>32</v>
       </c>
       <c r="F122" s="25"/>
@@ -7248,10 +7253,10 @@
       <c r="M122" s="27"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B123" s="56"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="57"/>
+      <c r="E123" s="57"/>
       <c r="F123" s="25"/>
       <c r="G123" s="28" t="s">
         <v>170</v>
@@ -7270,10 +7275,10 @@
       <c r="M123" s="27"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B124" s="56"/>
-      <c r="C124" s="56"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="54"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="55"/>
+      <c r="D124" s="57"/>
+      <c r="E124" s="57"/>
       <c r="F124" s="25"/>
       <c r="G124" s="28" t="s">
         <v>171</v>
@@ -7292,10 +7297,10 @@
       <c r="M124" s="27"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B125" s="56"/>
-      <c r="C125" s="56"/>
-      <c r="D125" s="54"/>
-      <c r="E125" s="54"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="57"/>
+      <c r="E125" s="57"/>
       <c r="F125" s="25"/>
       <c r="G125" s="28" t="s">
         <v>172</v>
@@ -7314,10 +7319,10 @@
       <c r="M125" s="27"/>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B126" s="56"/>
-      <c r="C126" s="56"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="54"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="55"/>
+      <c r="D126" s="57"/>
+      <c r="E126" s="57"/>
       <c r="F126" s="25"/>
       <c r="G126" s="28" t="s">
         <v>173</v>
@@ -7336,10 +7341,10 @@
       <c r="M126" s="27"/>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B127" s="56"/>
-      <c r="C127" s="56"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="54"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="57"/>
       <c r="F127" s="25"/>
       <c r="G127" s="28" t="s">
         <v>174</v>
@@ -7358,10 +7363,10 @@
       <c r="M127" s="27"/>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B128" s="56"/>
-      <c r="C128" s="56"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="54"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="55"/>
+      <c r="D128" s="57"/>
+      <c r="E128" s="57"/>
       <c r="F128" s="25"/>
       <c r="G128" s="28" t="s">
         <v>175</v>
@@ -7380,10 +7385,10 @@
       <c r="M128" s="27"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B129" s="56"/>
-      <c r="C129" s="56"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="55"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="55"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="58"/>
       <c r="F129" s="25"/>
       <c r="G129" s="28" t="s">
         <v>176</v>
@@ -7403,26 +7408,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="D97:D106"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="C15:C35"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="C36:C76"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="D42:D46"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E108:E111"/>
     <mergeCell ref="D108:D118"/>
@@ -7439,9 +7424,29 @@
     <mergeCell ref="E122:E129"/>
     <mergeCell ref="D119:D129"/>
     <mergeCell ref="E98:E101"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="C15:C35"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="C36:C76"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="18" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="17" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
+++ b/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\homelearn-hybrid-list\doc\02_wbs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="735" windowWidth="20610" windowHeight="14100" activeTab="2"/>
+    <workbookView xWindow="7740" yWindow="735" windowWidth="11400" windowHeight="5775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">퍼블리싱!$A$1:$AC$158</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$H$43</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="258">
   <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,6 +741,298 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>수학완성_영역별수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_수학경시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_마스연산_교과 연계 연산력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_마스연산_계산 속도 향상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_마스연산_계산 속도 향상_팁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_마스연산_암산력 향상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_파닉스_홈런파닉스_단어리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영단어 암기_마이페이지_학습 일자 별로 보기_전체학습일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영단어암기_학습안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영단어암기_1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌리더십</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌리더십_빈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_홈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌리더십 빈 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토샵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;00_글로벌리더십&gt;11_글로벌리더십_01_메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;03_수학완성&gt;09_GNB_03_수학완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;03_수학완성&gt;09_GNB_03_수학완성_01_마스연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;03_수학완성&gt;09_GNB_03_수학완성_03_수학경시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;03_수학완성&gt;09_GNB_03_수학완성_02_영역별수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_01_알파벳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_파닉스_학습안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영단어 암기_마이페이지_학습일 캘린더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_홈런픽_학습안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_학습소개_읽기마당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_학습안내_한국사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_교안안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_실험의 달인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교공부_학교공부예복습_복습 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_홈런AI교과서_책보기 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_홈런AI교과서_강의 선생님 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_홈런AI교과서_학습안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_학습소개_똑똑열려라코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_02_파닉스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_03_영단어암기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_04_영역별학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_08_영어송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_08_영역별학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_09_인기dvd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;09_GNB_05_특별학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_홈런픽_빈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;13_홈런픽_01메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;3D콘텐츠탑재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;역사의달인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;안드로이드_오늘의한자 포함 최종_20160127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;14_홈런공부송_01_메인4_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;14_애니특별관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;열려라코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;읽기마당-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;읽기마당-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_내가 쓴 소감 모음_빈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;읽기마당-메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;한국사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_01_예복습_소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_01_예복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_01_핵심전과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_02_체험학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교공부_숙제해결_숙제자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_03_숙제자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_04_테마숙제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교공부_숙제해결_테마숙제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_05_교과서사전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교공부_교과서사전_국어활동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교공부_교과서사전_국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교공부_교과서사전_통합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_학습안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_마스연산_교과연계연산력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>수학완성_마스연산_계산속도향상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,7 +1045,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수학완성_수학경시_고학년</t>
+    <t>HOMELEARN HYBRID LIST(초등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOMELERN HYBRID LIST(초등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -770,295 +1061,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수학완성_마스연산_교과 연계 연산력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_마스연산_계산 속도 향상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_마스연산_계산 속도 향상_팁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_마스연산_암산력 향상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어완성_파닉스_홈런파닉스_단어리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어완성_영단어 암기_마이페이지_학습 일자 별로 보기_전체학습일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어완성_영단어암기_학습안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어완성_영단어암기_1단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5depth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글로벌리더십</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글로벌리더십_빈화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_홈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글로벌리더십 빈 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOMELERN HYBRID LIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOMELEARN HYBRID LIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포토샵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;00_글로벌리더십&gt;11_글로벌리더십_01_메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;03_수학완성&gt;09_GNB_03_수학완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;03_수학완성&gt;09_GNB_03_수학완성_01_마스연산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;03_수학완성&gt;09_GNB_03_수학완성_03_수학경시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;03_수학완성&gt;09_GNB_03_수학완성_02_영역별수학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_01_알파벳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어완성_파닉스_학습안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어완성_영단어 암기_마이페이지_학습일 캘린더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_홈런픽_학습안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_학습소개_읽기마당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_학습안내_한국사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_교안안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_실험의 달인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교공부_학교공부예복습_복습 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_홈런AI교과서_책보기 안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_홈런AI교과서_강의 선생님 안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_홈런AI교과서_학습안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_학습소개_똑똑열려라코딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_02_파닉스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_03_영단어암기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_04_영역별학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_08_영어송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_08_영역별학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_09_인기dvd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;09_GNB_05_특별학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_홈런픽_빈화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;13_홈런픽_01메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;3D콘텐츠탑재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;역사의달인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;안드로이드_오늘의한자 포함 최종_20160127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;14_홈런공부송_01_메인4_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;14_애니특별관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;열려라코딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;읽기마당-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;읽기마당-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_내가 쓴 소감 모음_빈화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;읽기마당-메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;한국사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_01_예복습_소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_01_예복습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_01_핵심전과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_02_체험학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교공부_숙제해결_숙제자료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_03_숙제자료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_04_테마숙제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교공부_숙제해결_테마숙제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_05_교과서사전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교공부_교과서사전_국어활동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교공부_교과서사전_국어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교공부_교과서사전_통합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_학습안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_마스연산_교과연계연산력</t>
+    <t>영어완성_알파벳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1385,7 +1388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1442,15 +1445,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1527,6 +1521,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1540,6 +1540,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,9 +1564,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1879,7 +1879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B12:C33"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1904,7 +1904,7 @@
     <row r="12" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:3" ht="41.25" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1943,7 +1943,7 @@
   <dimension ref="A1:BB56"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="F8" sqref="F8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2477,20 +2477,20 @@
     </row>
     <row r="2" spans="1:54" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
       <c r="N2" s="11"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -2647,26 +2647,26 @@
     </row>
     <row r="5" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="51"/>
+      <c r="M5" s="50"/>
       <c r="N5" s="11"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -2710,26 +2710,26 @@
     </row>
     <row r="6" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="48" t="s">
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="47"/>
       <c r="N6" s="11"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -2773,18 +2773,18 @@
     </row>
     <row r="7" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="11"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -2828,18 +2828,18 @@
     </row>
     <row r="8" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
       <c r="N8" s="11"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -2883,18 +2883,18 @@
     </row>
     <row r="9" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
       <c r="N9" s="11"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -3966,8 +3966,8 @@
   </sheetPr>
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3977,11 +3977,11 @@
     <col min="3" max="3" width="10.5" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.375" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.75" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="56.625" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="62.75" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.5" style="21" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -4013,14 +4013,14 @@
     </row>
     <row r="2" spans="1:29" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
-      <c r="B2" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="15"/>
+      <c r="B2" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="O2" s="14"/>
@@ -4049,12 +4049,12 @@
       <c r="G3" s="15"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="52">
-        <f>ROUND((COUNTIF(J5:J29,"O")/COUNTA(J5:J29))*100,1)</f>
-        <v>16</v>
+        <f>ROUND((COUNTIF(J5:J129,"O")/COUNTA(J5:J129))*100,1)</f>
+        <v>10.4</v>
       </c>
       <c r="L3" s="53"/>
       <c r="M3" s="54"/>
@@ -4089,7 +4089,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>10</v>
@@ -4098,7 +4098,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>12</v>
@@ -4112,21 +4112,21 @@
       <c r="M4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
       <c r="AC4" s="17"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
@@ -4135,26 +4135,26 @@
         <v>25</v>
       </c>
       <c r="C5" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="14"/>
@@ -4176,24 +4176,24 @@
       <c r="A6" s="15"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="J6" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="I6" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="14"/>
@@ -4217,24 +4217,24 @@
       <c r="C7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" s="26" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="J7" s="42" t="s">
+      <c r="I7" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="30"/>
+      <c r="J7" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="14"/>
@@ -4256,24 +4256,24 @@
       <c r="A8" s="15"/>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="29" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="H8" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="14"/>
@@ -4298,23 +4298,23 @@
       <c r="D9" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="14"/>
@@ -4337,23 +4337,23 @@
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="57"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="14"/>
@@ -4376,23 +4376,23 @@
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
       <c r="D11" s="57"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="14"/>
@@ -4415,23 +4415,23 @@
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
       <c r="D12" s="58"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="14"/>
@@ -4453,28 +4453,26 @@
       <c r="A13" s="15"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="14"/>
@@ -4496,26 +4494,26 @@
       <c r="A14" s="15"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="14"/>
@@ -4539,24 +4537,24 @@
       <c r="C15" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
+      <c r="I15" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="14"/>
@@ -4578,24 +4576,24 @@
       <c r="A16" s="15"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
+      <c r="I16" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="14"/>
@@ -4617,26 +4615,26 @@
       <c r="A17" s="15"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
+      <c r="H17" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="14"/>
@@ -4661,23 +4659,23 @@
       <c r="D18" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
+      <c r="H18" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="14"/>
@@ -4700,23 +4698,23 @@
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
       <c r="D19" s="57"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="32"/>
+      <c r="I19" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="29"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="14"/>
@@ -4739,23 +4737,23 @@
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
       <c r="D20" s="57"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="32"/>
+      <c r="I20" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="29"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="14"/>
@@ -4778,23 +4776,23 @@
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="58"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="32"/>
+      <c r="H21" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="14"/>
@@ -4819,23 +4817,23 @@
       <c r="D22" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="32"/>
+      <c r="H22" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="29"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="14"/>
@@ -4858,23 +4856,23 @@
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="57"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="29" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="32"/>
+      <c r="H23" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="14"/>
@@ -4900,22 +4898,22 @@
       <c r="E24" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="32"/>
+      <c r="H24" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="14"/>
@@ -4939,22 +4937,22 @@
       <c r="C25" s="55"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29" t="s">
+      <c r="F25" s="26"/>
+      <c r="G25" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="I25" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="32"/>
+      <c r="H25" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="29"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="14"/>
@@ -4978,22 +4976,22 @@
       <c r="C26" s="55"/>
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29" t="s">
+      <c r="F26" s="26"/>
+      <c r="G26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="32"/>
+      <c r="I26" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="14"/>
@@ -5017,22 +5015,22 @@
       <c r="C27" s="55"/>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29" t="s">
+      <c r="F27" s="26"/>
+      <c r="G27" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="32"/>
+      <c r="I27" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="27"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="29"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="14"/>
@@ -5056,22 +5054,22 @@
       <c r="C28" s="55"/>
       <c r="D28" s="57"/>
       <c r="E28" s="58"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29" t="s">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="32"/>
+      <c r="I28" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="27"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="29"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="14"/>
@@ -5094,25 +5092,25 @@
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="57"/>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="32"/>
+      <c r="I29" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="27"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="29"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="14"/>
@@ -5133,192 +5131,192 @@
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29" t="s">
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="32"/>
+      <c r="I30" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="27"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="32"/>
+      <c r="I31" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="27"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="32"/>
+      <c r="I32" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="27"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J33" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
+      <c r="I33" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29" t="s">
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="32"/>
+      <c r="I34" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="27"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="29"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29" t="s">
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
+      <c r="I35" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="55"/>
       <c r="C36" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I36" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="J36" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="32"/>
+      <c r="I36" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="27"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J37" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
+      <c r="I37" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="55"/>
@@ -5326,91 +5324,91 @@
       <c r="D38" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29" t="s">
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I38" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="J38" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="32"/>
+      <c r="I38" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="27"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
       <c r="D39" s="57"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="I39" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="J39" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="32"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="27"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
       <c r="D40" s="58"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29" t="s">
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="I40" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J40" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="30"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="32"/>
+      <c r="H40" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="27"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="J41" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
+      <c r="I41" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="55"/>
@@ -5418,111 +5416,111 @@
       <c r="D42" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29" t="s">
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="H42" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="I42" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J42" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
+      <c r="H42" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
       <c r="D43" s="57"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29" t="s">
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="26" t="s">
+      <c r="H43" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="J43" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="32"/>
+      <c r="I43" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="27"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
       <c r="D44" s="57"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29" t="s">
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I44" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="J44" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="30"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="32"/>
+      <c r="I44" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="27"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
       <c r="D45" s="57"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="29" t="s">
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="H45" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="I45" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
+      <c r="I45" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
       <c r="D46" s="58"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="I46" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="J46" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="55"/>
@@ -5530,67 +5528,67 @@
       <c r="D47" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="29" t="s">
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H47" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="J47" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
+      <c r="I47" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
       <c r="D48" s="57"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="29" t="s">
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H48" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I48" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
+      <c r="H48" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
       <c r="D49" s="58"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="29" t="s">
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="I49" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="J49" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
+      <c r="H49" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="I49" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="55"/>
@@ -5598,155 +5596,155 @@
       <c r="D50" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="29" t="s">
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="I50" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J50" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
+      <c r="H50" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="I50" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
       <c r="D51" s="57"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="29" t="s">
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="H51" s="26" t="s">
+      <c r="H51" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I51" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J51" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
+      <c r="I51" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
       <c r="D52" s="57"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="29" t="s">
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="H52" s="26" t="s">
+      <c r="H52" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="I52" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J52" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" s="30"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="32"/>
+      <c r="I52" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="27"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="29"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
       <c r="D53" s="57"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="29" t="s">
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H53" s="26" t="s">
+      <c r="H53" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="I53" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J53" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" s="30"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="32"/>
+      <c r="I53" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="27"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="29"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
       <c r="D54" s="57"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="29" t="s">
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I54" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J54" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K54" s="30"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="32"/>
+      <c r="I54" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="27"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="29"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
       <c r="D55" s="57"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="29" t="s">
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="H55" s="26" t="s">
+      <c r="H55" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I55" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
+      <c r="I55" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
       <c r="D56" s="58"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="29" t="s">
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I56" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J56" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
+      <c r="I56" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J56" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="55"/>
@@ -5754,89 +5752,89 @@
       <c r="D57" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="29" t="s">
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I57" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="J57" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
+      <c r="I57" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="29" t="s">
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H58" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I58" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="J58" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
+      <c r="I58" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
       <c r="D59" s="55"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="29" t="s">
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H59" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="I59" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="J59" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
+      <c r="I59" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
       <c r="D60" s="55"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="29" t="s">
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="H60" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="I60" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="J60" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
+      <c r="I60" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="55"/>
@@ -5844,45 +5842,45 @@
       <c r="D61" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29" t="s">
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H61" s="26" t="s">
+      <c r="H61" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I61" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="J61" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K61" s="30"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="32"/>
+      <c r="I61" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="J61" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="27"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="29"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
       <c r="D62" s="57"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="29" t="s">
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H62" s="26" t="s">
+      <c r="H62" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="I62" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="J62" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K62" s="32"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="32"/>
+      <c r="I62" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" s="29"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="29"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="55"/>
@@ -5890,133 +5888,133 @@
       <c r="D63" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="29" t="s">
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="H63" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="I63" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="J63" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="32"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="32"/>
+      <c r="I63" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="29"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="29"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
       <c r="D64" s="57"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="29" t="s">
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="I64" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="J64" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K64" s="32"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="32"/>
+      <c r="I64" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K64" s="29"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="29"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
       <c r="D65" s="57"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29" t="s">
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="I65" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J65" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K65" s="30"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="32"/>
+      <c r="I65" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65" s="27"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="29"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
       <c r="D66" s="57"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="34" t="s">
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="H66" s="36" t="s">
+      <c r="H66" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="I66" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66" s="32"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="32"/>
+      <c r="I66" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="29"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="29"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
       <c r="D67" s="57"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="34" t="s">
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H67" s="36" t="s">
+      <c r="H67" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="I67" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J67" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K67" s="32"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="32"/>
+      <c r="I67" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J67" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" s="29"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="29"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
       <c r="D68" s="58"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="34" t="s">
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="H68" s="36" t="s">
+      <c r="H68" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="I68" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J68" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K68" s="30"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="32"/>
+      <c r="I68" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J68" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" s="27"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="29"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="55"/>
@@ -6024,67 +6022,67 @@
       <c r="D69" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="34" t="s">
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="H69" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="I69" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J69" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K69" s="32"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="32"/>
+      <c r="H69" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="I69" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J69" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K69" s="29"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="29"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
       <c r="D70" s="57"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="34" t="s">
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H70" s="36" t="s">
+      <c r="H70" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="I70" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="J70" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K70" s="32"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="32"/>
+      <c r="I70" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J70" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" s="29"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="29"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
       <c r="D71" s="58"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="34" t="s">
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H71" s="36" t="s">
+      <c r="H71" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="I71" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="J71" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K71" s="30"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="32"/>
+      <c r="I71" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" s="27"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="29"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="55"/>
@@ -6092,181 +6090,181 @@
       <c r="D72" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="34" t="s">
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H72" s="36" t="s">
+      <c r="H72" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="I72" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J72" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K72" s="32"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="32"/>
+      <c r="I72" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" s="29"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="29"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
       <c r="D73" s="57"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="34" t="s">
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H73" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="I73" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J73" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K73" s="32"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="32"/>
+      <c r="H73" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="I73" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K73" s="29"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="29"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
       <c r="D74" s="57"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="34" t="s">
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="H74" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I74" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J74" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K74" s="32"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="32"/>
+      <c r="H74" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="I74" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74" s="29"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="29"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
       <c r="D75" s="58"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="34" t="s">
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="H75" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="I75" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="J75" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K75" s="32"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="32"/>
+      <c r="H75" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="I75" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J75" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K75" s="29"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="29"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="34" t="s">
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="H76" s="36" t="s">
+      <c r="H76" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I76" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="J76" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K76" s="32"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="32"/>
+      <c r="I76" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" s="29"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="29"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="55"/>
       <c r="C77" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="34" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="H77" s="36" t="s">
+      <c r="H77" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I77" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K77" s="32"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="32"/>
+      <c r="I77" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="J77" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" s="29"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="29"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="34" t="s">
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="H78" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="I78" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="J78" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K78" s="32"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="32"/>
+      <c r="H78" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="I78" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="J78" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" s="29"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="29"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="34" t="s">
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="H79" s="36" t="s">
+      <c r="H79" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I79" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="J79" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K79" s="32"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="32"/>
+      <c r="I79" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="J79" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" s="29"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="29"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="55"/>
@@ -6274,67 +6272,67 @@
       <c r="D80" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="E80" s="45"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="H80" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I80" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="J80" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K80" s="32"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="32"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="H80" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I80" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="J80" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" s="29"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="29"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
       <c r="D81" s="57"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="H81" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="I81" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J81" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K81" s="32"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="32"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="H81" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="I81" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J81" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" s="29"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="29"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
       <c r="D82" s="57"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="H82" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="I82" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="J82" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K82" s="32"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="32"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="H82" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="I82" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="J82" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K82" s="29"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="29"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="55"/>
@@ -6342,27 +6340,27 @@
       <c r="D83" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="F83" s="40" t="s">
+      <c r="F83" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G83" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="H83" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="I83" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="J83" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K83" s="32"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="32"/>
+      <c r="G83" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="H83" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="I83" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="J83" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="29"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="29"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="55"/>
@@ -6371,178 +6369,178 @@
       <c r="E84" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="F84" s="31"/>
-      <c r="G84" s="34" t="s">
+      <c r="F84" s="28"/>
+      <c r="G84" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="H84" s="36" t="s">
+      <c r="H84" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="I84" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="J84" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K84" s="32"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="32"/>
+      <c r="I84" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J84" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" s="29"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="29"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="55"/>
       <c r="C85" s="55"/>
       <c r="D85" s="55"/>
       <c r="E85" s="57"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="34" t="s">
+      <c r="F85" s="28"/>
+      <c r="G85" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="H85" s="36" t="s">
+      <c r="H85" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="I85" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="J85" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K85" s="32"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="32"/>
+      <c r="I85" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J85" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K85" s="29"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="29"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
       <c r="D86" s="55"/>
       <c r="E86" s="57"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="34" t="s">
+      <c r="F86" s="28"/>
+      <c r="G86" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="H86" s="36" t="s">
+      <c r="H86" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="I86" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="J86" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K86" s="32"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="32"/>
+      <c r="I86" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J86" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86" s="29"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="29"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="55"/>
       <c r="C87" s="55"/>
       <c r="D87" s="55"/>
       <c r="E87" s="57"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="34" t="s">
+      <c r="F87" s="28"/>
+      <c r="G87" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="H87" s="36" t="s">
+      <c r="H87" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I87" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="J87" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K87" s="32"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="32"/>
+      <c r="I87" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J87" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K87" s="29"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="29"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="55"/>
       <c r="C88" s="55"/>
       <c r="D88" s="55"/>
       <c r="E88" s="57"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="34" t="s">
+      <c r="F88" s="28"/>
+      <c r="G88" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H88" s="36" t="s">
+      <c r="H88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="I88" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="J88" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K88" s="32"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="32"/>
+      <c r="I88" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J88" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K88" s="29"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="29"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="55"/>
       <c r="C89" s="55"/>
       <c r="D89" s="55"/>
       <c r="E89" s="57"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="34" t="s">
+      <c r="F89" s="28"/>
+      <c r="G89" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="H89" s="36" t="s">
+      <c r="H89" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="I89" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="J89" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K89" s="32"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="32"/>
+      <c r="I89" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J89" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89" s="29"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="29"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
       <c r="D90" s="55"/>
       <c r="E90" s="58"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="34" t="s">
+      <c r="F90" s="28"/>
+      <c r="G90" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H90" s="36" t="s">
+      <c r="H90" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="I90" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="J90" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K90" s="32"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="32"/>
+      <c r="I90" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J90" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90" s="29"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="29"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="55"/>
       <c r="C91" s="55"/>
       <c r="D91" s="55"/>
-      <c r="E91" s="33" t="s">
+      <c r="E91" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F91" s="31"/>
-      <c r="G91" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="H91" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="I91" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="J91" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K91" s="32"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="32"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="H91" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="I91" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="J91" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K91" s="29"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="29"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="55"/>
@@ -6554,21 +6552,21 @@
       <c r="F92" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="G92" s="28" t="s">
+      <c r="G92" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H92" s="22" t="s">
+      <c r="H92" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="I92" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="J92" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
+      <c r="I92" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J92" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="55"/>
@@ -6576,21 +6574,21 @@
       <c r="D93" s="55"/>
       <c r="E93" s="57"/>
       <c r="F93" s="57"/>
-      <c r="G93" s="28" t="s">
+      <c r="G93" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="H93" s="22" t="s">
+      <c r="H93" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I93" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="J93" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
+      <c r="I93" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J93" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="55"/>
@@ -6598,21 +6596,21 @@
       <c r="D94" s="55"/>
       <c r="E94" s="57"/>
       <c r="F94" s="58"/>
-      <c r="G94" s="28" t="s">
+      <c r="G94" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H94" s="22" t="s">
+      <c r="H94" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="I94" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="J94" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K94" s="27"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="27"/>
+      <c r="I94" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J94" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="55"/>
@@ -6622,21 +6620,21 @@
       <c r="F95" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G95" s="28" t="s">
+      <c r="G95" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H95" s="22" t="s">
+      <c r="H95" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I95" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="J95" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K95" s="27"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="27"/>
+      <c r="I95" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J95" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="55"/>
@@ -6644,21 +6642,21 @@
       <c r="D96" s="55"/>
       <c r="E96" s="58"/>
       <c r="F96" s="58"/>
-      <c r="G96" s="28" t="s">
+      <c r="G96" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="H96" s="22" t="s">
+      <c r="H96" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I96" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="J96" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="27"/>
+      <c r="I96" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J96" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B97" s="55"/>
@@ -6666,23 +6664,23 @@
       <c r="D97" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="28" t="s">
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="H97" s="22" t="s">
+      <c r="H97" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="I97" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J97" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
+      <c r="I97" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J97" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="55"/>
@@ -6691,88 +6689,88 @@
       <c r="E98" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F98" s="25"/>
-      <c r="G98" s="28" t="s">
+      <c r="F98" s="22"/>
+      <c r="G98" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="H98" s="22" t="s">
+      <c r="H98" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="I98" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J98" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="27"/>
+      <c r="I98" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J98" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="55"/>
       <c r="C99" s="55"/>
       <c r="D99" s="57"/>
       <c r="E99" s="57"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="28" t="s">
+      <c r="F99" s="22"/>
+      <c r="G99" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="H99" s="22" t="s">
+      <c r="H99" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="I99" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J99" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="27"/>
+      <c r="I99" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J99" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="55"/>
       <c r="C100" s="55"/>
       <c r="D100" s="57"/>
       <c r="E100" s="57"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="28" t="s">
+      <c r="F100" s="22"/>
+      <c r="G100" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="H100" s="22" t="s">
+      <c r="H100" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="I100" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J100" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="27"/>
+      <c r="I100" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J100" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="55"/>
       <c r="C101" s="55"/>
       <c r="D101" s="57"/>
       <c r="E101" s="58"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="28" t="s">
+      <c r="F101" s="22"/>
+      <c r="G101" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H101" s="22" t="s">
+      <c r="H101" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="I101" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J101" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
-      <c r="M101" s="27"/>
+      <c r="I101" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J101" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="55"/>
@@ -6781,134 +6779,134 @@
       <c r="E102" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F102" s="25"/>
-      <c r="G102" s="28" t="s">
+      <c r="F102" s="22"/>
+      <c r="G102" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="H102" s="22" t="s">
+      <c r="H102" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I102" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J102" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
+      <c r="I102" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J102" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="55"/>
       <c r="C103" s="55"/>
       <c r="D103" s="57"/>
       <c r="E103" s="57"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="28" t="s">
+      <c r="F103" s="22"/>
+      <c r="G103" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="H103" s="22" t="s">
+      <c r="H103" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="I103" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J103" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
+      <c r="I103" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J103" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="55"/>
       <c r="C104" s="55"/>
       <c r="D104" s="57"/>
       <c r="E104" s="57"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="28" t="s">
+      <c r="F104" s="22"/>
+      <c r="G104" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="H104" s="22" t="s">
+      <c r="H104" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="I104" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J104" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K104" s="27"/>
-      <c r="L104" s="27"/>
-      <c r="M104" s="27"/>
+      <c r="I104" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J104" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="55"/>
       <c r="C105" s="55"/>
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="28" t="s">
+      <c r="F105" s="22"/>
+      <c r="G105" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H105" s="22" t="s">
+      <c r="H105" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="I105" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J105" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
-      <c r="M105" s="27"/>
+      <c r="I105" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J105" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="55"/>
       <c r="C106" s="55"/>
       <c r="D106" s="57"/>
       <c r="E106" s="58"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="28" t="s">
+      <c r="F106" s="22"/>
+      <c r="G106" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="H106" s="22" t="s">
+      <c r="H106" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="I106" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J106" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27"/>
+      <c r="I106" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J106" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="55"/>
       <c r="C107" s="55"/>
-      <c r="D107" s="29" t="s">
+      <c r="D107" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="28" t="s">
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="H107" s="22" t="s">
+      <c r="H107" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="I107" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J107" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="27"/>
+      <c r="I107" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J107" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="55"/>
@@ -6919,88 +6917,88 @@
       <c r="E108" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F108" s="25"/>
-      <c r="G108" s="28" t="s">
+      <c r="F108" s="22"/>
+      <c r="G108" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="H108" s="22" t="s">
+      <c r="H108" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="I108" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J108" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="27"/>
+      <c r="I108" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J108" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="55"/>
       <c r="C109" s="55"/>
       <c r="D109" s="57"/>
       <c r="E109" s="57"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="28" t="s">
+      <c r="F109" s="22"/>
+      <c r="G109" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="H109" s="22" t="s">
+      <c r="H109" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="I109" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J109" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="27"/>
+      <c r="I109" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J109" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="55"/>
       <c r="C110" s="55"/>
       <c r="D110" s="57"/>
       <c r="E110" s="57"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="28" t="s">
+      <c r="F110" s="22"/>
+      <c r="G110" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="H110" s="22" t="s">
+      <c r="H110" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="I110" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J110" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K110" s="27"/>
-      <c r="L110" s="27"/>
-      <c r="M110" s="27"/>
+      <c r="I110" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J110" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="55"/>
       <c r="C111" s="55"/>
       <c r="D111" s="57"/>
       <c r="E111" s="58"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="28" t="s">
+      <c r="F111" s="22"/>
+      <c r="G111" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="H111" s="22" t="s">
+      <c r="H111" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="I111" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J111" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K111" s="27"/>
-      <c r="L111" s="27"/>
-      <c r="M111" s="27"/>
+      <c r="I111" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J111" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="55"/>
@@ -7009,154 +7007,154 @@
       <c r="E112" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="F112" s="25"/>
-      <c r="G112" s="28" t="s">
+      <c r="F112" s="22"/>
+      <c r="G112" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="H112" s="22" t="s">
+      <c r="H112" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="I112" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J112" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="27"/>
+      <c r="I112" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J112" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="24"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="55"/>
       <c r="C113" s="55"/>
       <c r="D113" s="57"/>
       <c r="E113" s="55"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="28" t="s">
+      <c r="F113" s="22"/>
+      <c r="G113" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H113" s="22" t="s">
+      <c r="H113" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="I113" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J113" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="27"/>
+      <c r="I113" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J113" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="55"/>
       <c r="C114" s="55"/>
       <c r="D114" s="57"/>
       <c r="E114" s="55"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="28" t="s">
+      <c r="F114" s="22"/>
+      <c r="G114" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="H114" s="22" t="s">
+      <c r="H114" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="I114" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J114" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K114" s="27"/>
-      <c r="L114" s="27"/>
-      <c r="M114" s="27"/>
+      <c r="I114" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J114" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="55"/>
       <c r="C115" s="55"/>
       <c r="D115" s="57"/>
       <c r="E115" s="55"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="28" t="s">
+      <c r="F115" s="22"/>
+      <c r="G115" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="H115" s="22" t="s">
+      <c r="H115" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="I115" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J115" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K115" s="27"/>
-      <c r="L115" s="27"/>
-      <c r="M115" s="27"/>
+      <c r="I115" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J115" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="24"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="55"/>
       <c r="C116" s="55"/>
       <c r="D116" s="57"/>
       <c r="E116" s="55"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="28" t="s">
+      <c r="F116" s="22"/>
+      <c r="G116" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="H116" s="22" t="s">
+      <c r="H116" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="I116" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J116" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K116" s="27"/>
-      <c r="L116" s="27"/>
-      <c r="M116" s="27"/>
+      <c r="I116" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J116" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
+      <c r="M116" s="24"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" s="55"/>
       <c r="C117" s="55"/>
       <c r="D117" s="57"/>
       <c r="E117" s="55"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="28" t="s">
+      <c r="F117" s="22"/>
+      <c r="G117" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H117" s="22" t="s">
+      <c r="H117" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I117" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J117" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
+      <c r="I117" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J117" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
       <c r="D118" s="58"/>
       <c r="E118" s="55"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="28" t="s">
+      <c r="F118" s="22"/>
+      <c r="G118" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="22" t="s">
+      <c r="H118" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="I118" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J118" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K118" s="27"/>
-      <c r="L118" s="27"/>
-      <c r="M118" s="27"/>
+      <c r="I118" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J118" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="55"/>
@@ -7167,66 +7165,66 @@
       <c r="E119" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F119" s="25"/>
-      <c r="G119" s="28" t="s">
+      <c r="F119" s="22"/>
+      <c r="G119" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="H119" s="22" t="s">
+      <c r="H119" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="I119" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J119" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K119" s="27"/>
-      <c r="L119" s="27"/>
-      <c r="M119" s="27"/>
+      <c r="I119" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J119" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+      <c r="M119" s="24"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="55"/>
       <c r="C120" s="55"/>
       <c r="D120" s="57"/>
       <c r="E120" s="55"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="28" t="s">
+      <c r="F120" s="22"/>
+      <c r="G120" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="H120" s="22" t="s">
+      <c r="H120" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="I120" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J120" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K120" s="27"/>
-      <c r="L120" s="27"/>
-      <c r="M120" s="27"/>
+      <c r="I120" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J120" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" s="55"/>
       <c r="C121" s="55"/>
       <c r="D121" s="57"/>
       <c r="E121" s="55"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="28" t="s">
+      <c r="F121" s="22"/>
+      <c r="G121" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H121" s="22" t="s">
+      <c r="H121" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I121" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J121" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K121" s="27"/>
-      <c r="L121" s="27"/>
-      <c r="M121" s="27"/>
+      <c r="I121" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J121" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="55"/>
@@ -7235,185 +7233,179 @@
       <c r="E122" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F122" s="25"/>
-      <c r="G122" s="28" t="s">
+      <c r="F122" s="22"/>
+      <c r="G122" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="H122" s="22" t="s">
+      <c r="H122" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="I122" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J122" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K122" s="27"/>
-      <c r="L122" s="27"/>
-      <c r="M122" s="27"/>
+      <c r="I122" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J122" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" s="55"/>
       <c r="C123" s="55"/>
       <c r="D123" s="57"/>
       <c r="E123" s="57"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="28" t="s">
+      <c r="F123" s="22"/>
+      <c r="G123" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="H123" s="22" t="s">
+      <c r="H123" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="I123" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J123" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K123" s="27"/>
-      <c r="L123" s="27"/>
-      <c r="M123" s="27"/>
+      <c r="I123" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J123" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="55"/>
       <c r="C124" s="55"/>
       <c r="D124" s="57"/>
       <c r="E124" s="57"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="28" t="s">
+      <c r="F124" s="22"/>
+      <c r="G124" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="H124" s="22" t="s">
+      <c r="H124" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="I124" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J124" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K124" s="27"/>
-      <c r="L124" s="27"/>
-      <c r="M124" s="27"/>
+      <c r="I124" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J124" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="55"/>
       <c r="C125" s="55"/>
       <c r="D125" s="57"/>
       <c r="E125" s="57"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="28" t="s">
+      <c r="F125" s="22"/>
+      <c r="G125" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="H125" s="22" t="s">
+      <c r="H125" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="I125" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J125" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K125" s="27"/>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27"/>
+      <c r="I125" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J125" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
+      <c r="M125" s="24"/>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="55"/>
       <c r="C126" s="55"/>
       <c r="D126" s="57"/>
       <c r="E126" s="57"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="28" t="s">
+      <c r="F126" s="22"/>
+      <c r="G126" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H126" s="22" t="s">
+      <c r="H126" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I126" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J126" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K126" s="27"/>
-      <c r="L126" s="27"/>
-      <c r="M126" s="27"/>
+      <c r="I126" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J126" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="55"/>
       <c r="C127" s="55"/>
       <c r="D127" s="57"/>
       <c r="E127" s="57"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="28" t="s">
+      <c r="F127" s="22"/>
+      <c r="G127" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="H127" s="22" t="s">
+      <c r="H127" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="I127" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J127" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K127" s="27"/>
-      <c r="L127" s="27"/>
-      <c r="M127" s="27"/>
+      <c r="I127" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J127" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="55"/>
       <c r="C128" s="55"/>
       <c r="D128" s="57"/>
       <c r="E128" s="57"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="28" t="s">
+      <c r="F128" s="22"/>
+      <c r="G128" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="H128" s="22" t="s">
+      <c r="H128" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="I128" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J128" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K128" s="27"/>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
+      <c r="I128" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J128" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" s="55"/>
       <c r="C129" s="55"/>
       <c r="D129" s="58"/>
       <c r="E129" s="58"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="28" t="s">
+      <c r="F129" s="22"/>
+      <c r="G129" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="H129" s="22" t="s">
+      <c r="H129" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="I129" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J129" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K129" s="27"/>
-      <c r="L129" s="27"/>
-      <c r="M129" s="27"/>
+      <c r="I129" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J129" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K129" s="24"/>
+      <c r="L129" s="24"/>
+      <c r="M129" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E108:E111"/>
-    <mergeCell ref="D108:D118"/>
-    <mergeCell ref="E112:E118"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="E84:E90"/>
     <mergeCell ref="F92:F94"/>
     <mergeCell ref="F95:F96"/>
     <mergeCell ref="E92:E96"/>
@@ -7424,10 +7416,11 @@
     <mergeCell ref="E122:E129"/>
     <mergeCell ref="D119:D129"/>
     <mergeCell ref="E98:E101"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="D97:D106"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="D108:D118"/>
+    <mergeCell ref="E112:E118"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="E84:E90"/>
     <mergeCell ref="C15:C35"/>
     <mergeCell ref="D72:D75"/>
     <mergeCell ref="C36:C76"/>
@@ -7439,14 +7432,19 @@
     <mergeCell ref="D63:D68"/>
     <mergeCell ref="D69:D71"/>
     <mergeCell ref="D42:D46"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="C7:C14"/>
-    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="17" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="18" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
+++ b/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
@@ -3967,7 +3967,7 @@
   <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
+++ b/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\homelearn-hybrid-list\doc\02_wbs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="7740" yWindow="735" windowWidth="11400" windowHeight="5775" activeTab="2"/>
   </bookViews>
@@ -16,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">퍼블리싱!$A$1:$AC$158</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$H$43</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1388,7 +1393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1527,11 +1532,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1539,7 +1550,16 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1552,18 +1572,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1879,7 +1887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2477,20 +2485,20 @@
     </row>
     <row r="2" spans="1:54" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="11"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -2647,26 +2655,26 @@
     </row>
     <row r="5" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="50"/>
+      <c r="M5" s="48"/>
       <c r="N5" s="11"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -2714,18 +2722,18 @@
         <v>22</v>
       </c>
       <c r="C6" s="47"/>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
       <c r="L6" s="47" t="s">
         <v>7</v>
       </c>
@@ -2775,14 +2783,14 @@
       <c r="A7" s="11"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
       <c r="N7" s="11"/>
@@ -2830,14 +2838,14 @@
       <c r="A8" s="11"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
       <c r="N8" s="11"/>
@@ -2885,14 +2893,14 @@
       <c r="A9" s="11"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
       <c r="L9" s="47"/>
       <c r="M9" s="47"/>
       <c r="N9" s="11"/>
@@ -3929,11 +3937,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -3950,6 +3953,11 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3966,8 +3974,8 @@
   </sheetPr>
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4013,14 +4021,14 @@
     </row>
     <row r="2" spans="1:29" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="O2" s="14"/>
@@ -4052,12 +4060,12 @@
       <c r="J3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="57">
         <f>ROUND((COUNTIF(J5:J129,"O")/COUNTA(J5:J129))*100,1)</f>
-        <v>10.4</v>
-      </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
+        <v>12</v>
+      </c>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -4154,7 +4162,7 @@
       </c>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="M5" s="46"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="14"/>
@@ -4295,7 +4303,7 @@
       <c r="A9" s="15"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="26"/>
@@ -4314,7 +4322,7 @@
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="14"/>
@@ -4336,7 +4344,7 @@
       <c r="A10" s="15"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
-      <c r="D10" s="57"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26" t="s">
@@ -4353,7 +4361,7 @@
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="M10" s="46"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="14"/>
@@ -4375,7 +4383,7 @@
       <c r="A11" s="15"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
-      <c r="D11" s="57"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26" t="s">
@@ -4414,7 +4422,7 @@
       <c r="A12" s="15"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
-      <c r="D12" s="58"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26" t="s">
@@ -4431,7 +4439,7 @@
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="M12" s="46"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="14"/>
@@ -4472,7 +4480,7 @@
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="M13" s="46"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="14"/>
@@ -4513,7 +4521,7 @@
       </c>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
+      <c r="M14" s="46"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="14"/>
@@ -4554,7 +4562,7 @@
       </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
+      <c r="M15" s="46"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="14"/>
@@ -4593,7 +4601,7 @@
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
+      <c r="M16" s="46"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="14"/>
@@ -4634,7 +4642,7 @@
       </c>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+      <c r="M17" s="46"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="14"/>
@@ -4656,7 +4664,7 @@
       <c r="A18" s="15"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="26"/>
@@ -4670,12 +4678,12 @@
       <c r="I18" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="J18" s="26" t="s">
-        <v>24</v>
+      <c r="J18" s="46" t="s">
+        <v>192</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
+      <c r="M18" s="46"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="14"/>
@@ -4697,7 +4705,7 @@
       <c r="A19" s="15"/>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
-      <c r="D19" s="57"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26" t="s">
@@ -4714,7 +4722,7 @@
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="26"/>
-      <c r="M19" s="29"/>
+      <c r="M19" s="46"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="14"/>
@@ -4736,7 +4744,7 @@
       <c r="A20" s="15"/>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
-      <c r="D20" s="57"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26" t="s">
@@ -4748,12 +4756,12 @@
       <c r="I20" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="26" t="s">
-        <v>24</v>
+      <c r="J20" s="46" t="s">
+        <v>192</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="26"/>
-      <c r="M20" s="29"/>
+      <c r="M20" s="46"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="14"/>
@@ -4775,7 +4783,7 @@
       <c r="A21" s="15"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
-      <c r="D21" s="58"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26" t="s">
@@ -4785,14 +4793,14 @@
         <v>183</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="26"/>
-      <c r="M21" s="29"/>
+      <c r="M21" s="46"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="14"/>
@@ -4814,7 +4822,7 @@
       <c r="A22" s="15"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="52" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="26"/>
@@ -4833,7 +4841,7 @@
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="26"/>
-      <c r="M22" s="29"/>
+      <c r="M22" s="46"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="14"/>
@@ -4855,7 +4863,7 @@
       <c r="A23" s="15"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
-      <c r="D23" s="57"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="26" t="s">
@@ -4872,7 +4880,7 @@
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="26"/>
-      <c r="M23" s="29"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="14"/>
@@ -4894,8 +4902,8 @@
       <c r="A24" s="15"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="56" t="s">
+      <c r="D24" s="53"/>
+      <c r="E24" s="52" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="26"/>
@@ -4913,7 +4921,7 @@
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="26"/>
-      <c r="M24" s="29"/>
+      <c r="M24" s="46"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="14"/>
@@ -4935,8 +4943,8 @@
       <c r="A25" s="15"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26" t="s">
         <v>84</v>
@@ -4952,7 +4960,7 @@
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="26"/>
-      <c r="M25" s="29"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="14"/>
@@ -4974,8 +4982,8 @@
       <c r="A26" s="15"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26" t="s">
         <v>45</v>
@@ -4991,7 +4999,7 @@
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="26"/>
-      <c r="M26" s="29"/>
+      <c r="M26" s="46"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="14"/>
@@ -5013,8 +5021,8 @@
       <c r="A27" s="15"/>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26" t="s">
         <v>44</v>
@@ -5030,7 +5038,7 @@
       </c>
       <c r="K27" s="27"/>
       <c r="L27" s="26"/>
-      <c r="M27" s="29"/>
+      <c r="M27" s="46"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="14"/>
@@ -5052,8 +5060,8 @@
       <c r="A28" s="15"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26" t="s">
         <v>47</v>
@@ -5069,7 +5077,7 @@
       </c>
       <c r="K28" s="27"/>
       <c r="L28" s="26"/>
-      <c r="M28" s="29"/>
+      <c r="M28" s="46"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="14"/>
@@ -5091,7 +5099,7 @@
       <c r="A29" s="15"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
-      <c r="D29" s="57"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="26" t="s">
         <v>48</v>
       </c>
@@ -5110,7 +5118,7 @@
       </c>
       <c r="K29" s="27"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="29"/>
+      <c r="M29" s="46"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="14"/>
@@ -5150,7 +5158,7 @@
       </c>
       <c r="K30" s="27"/>
       <c r="L30" s="26"/>
-      <c r="M30" s="29"/>
+      <c r="M30" s="46"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B31" s="55"/>
@@ -5174,7 +5182,7 @@
       </c>
       <c r="K31" s="27"/>
       <c r="L31" s="26"/>
-      <c r="M31" s="29"/>
+      <c r="M31" s="46"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B32" s="55"/>
@@ -5198,7 +5206,7 @@
       </c>
       <c r="K32" s="27"/>
       <c r="L32" s="26"/>
-      <c r="M32" s="29"/>
+      <c r="M32" s="46"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="55"/>
@@ -5222,7 +5230,7 @@
       </c>
       <c r="K33" s="26"/>
       <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
+      <c r="M33" s="46"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="55"/>
@@ -5246,7 +5254,7 @@
       </c>
       <c r="K34" s="27"/>
       <c r="L34" s="26"/>
-      <c r="M34" s="29"/>
+      <c r="M34" s="46"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="55"/>
@@ -5270,7 +5278,7 @@
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
+      <c r="M35" s="46"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="55"/>
@@ -5294,7 +5302,7 @@
       </c>
       <c r="K36" s="27"/>
       <c r="L36" s="26"/>
-      <c r="M36" s="29"/>
+      <c r="M36" s="46"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="55"/>
@@ -5316,12 +5324,12 @@
       </c>
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
+      <c r="M37" s="46"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="52" t="s">
         <v>68</v>
       </c>
       <c r="E38" s="26"/>
@@ -5340,12 +5348,12 @@
       </c>
       <c r="K38" s="27"/>
       <c r="L38" s="26"/>
-      <c r="M38" s="29"/>
+      <c r="M38" s="46"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
-      <c r="D39" s="57"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38" t="s">
@@ -5362,12 +5370,12 @@
       </c>
       <c r="K39" s="27"/>
       <c r="L39" s="38"/>
-      <c r="M39" s="29"/>
+      <c r="M39" s="46"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
-      <c r="D40" s="58"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26" t="s">
@@ -5384,7 +5392,7 @@
       </c>
       <c r="K40" s="27"/>
       <c r="L40" s="26"/>
-      <c r="M40" s="29"/>
+      <c r="M40" s="46"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="55"/>
@@ -5408,12 +5416,12 @@
       </c>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
+      <c r="M41" s="46"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="52" t="s">
         <v>72</v>
       </c>
       <c r="E42" s="26"/>
@@ -5432,12 +5440,12 @@
       </c>
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
+      <c r="M42" s="46"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
-      <c r="D43" s="57"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26" t="s">
@@ -5454,12 +5462,12 @@
       </c>
       <c r="K43" s="27"/>
       <c r="L43" s="26"/>
-      <c r="M43" s="29"/>
+      <c r="M43" s="46"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
-      <c r="D44" s="57"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26" t="s">
@@ -5476,12 +5484,12 @@
       </c>
       <c r="K44" s="27"/>
       <c r="L44" s="26"/>
-      <c r="M44" s="29"/>
+      <c r="M44" s="46"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
-      <c r="D45" s="57"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
       <c r="G45" s="26" t="s">
@@ -5498,12 +5506,12 @@
       </c>
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
+      <c r="M45" s="46"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
-      <c r="D46" s="58"/>
+      <c r="D46" s="54"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="38" t="s">
@@ -5520,12 +5528,12 @@
       </c>
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
+      <c r="M46" s="46"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="52" t="s">
         <v>76</v>
       </c>
       <c r="E47" s="28"/>
@@ -5544,12 +5552,12 @@
       </c>
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
+      <c r="M47" s="46"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
-      <c r="D48" s="57"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
       <c r="G48" s="26" t="s">
@@ -5566,12 +5574,12 @@
       </c>
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
+      <c r="M48" s="46"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
-      <c r="D49" s="58"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="26" t="s">
@@ -5588,12 +5596,12 @@
       </c>
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
+      <c r="M49" s="46"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
-      <c r="D50" s="56" t="s">
+      <c r="D50" s="52" t="s">
         <v>87</v>
       </c>
       <c r="E50" s="28"/>
@@ -5612,12 +5620,12 @@
       </c>
       <c r="K50" s="26"/>
       <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
+      <c r="M50" s="46"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
-      <c r="D51" s="57"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
       <c r="G51" s="26" t="s">
@@ -5634,12 +5642,12 @@
       </c>
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
+      <c r="M51" s="46"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
-      <c r="D52" s="57"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="26" t="s">
@@ -5656,12 +5664,12 @@
       </c>
       <c r="K52" s="27"/>
       <c r="L52" s="26"/>
-      <c r="M52" s="29"/>
+      <c r="M52" s="46"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
-      <c r="D53" s="57"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="26" t="s">
@@ -5678,12 +5686,12 @@
       </c>
       <c r="K53" s="27"/>
       <c r="L53" s="26"/>
-      <c r="M53" s="29"/>
+      <c r="M53" s="46"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
-      <c r="D54" s="57"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
       <c r="G54" s="26" t="s">
@@ -5700,12 +5708,12 @@
       </c>
       <c r="K54" s="27"/>
       <c r="L54" s="26"/>
-      <c r="M54" s="29"/>
+      <c r="M54" s="46"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
-      <c r="D55" s="57"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
       <c r="G55" s="26" t="s">
@@ -5722,12 +5730,12 @@
       </c>
       <c r="K55" s="26"/>
       <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
+      <c r="M55" s="46"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
-      <c r="D56" s="58"/>
+      <c r="D56" s="54"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
       <c r="G56" s="26" t="s">
@@ -5744,7 +5752,7 @@
       </c>
       <c r="K56" s="26"/>
       <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
+      <c r="M56" s="46"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="55"/>
@@ -5768,7 +5776,7 @@
       </c>
       <c r="K57" s="26"/>
       <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
+      <c r="M57" s="46"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="55"/>
@@ -5790,7 +5798,7 @@
       </c>
       <c r="K58" s="26"/>
       <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
+      <c r="M58" s="46"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="55"/>
@@ -5812,7 +5820,7 @@
       </c>
       <c r="K59" s="26"/>
       <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
+      <c r="M59" s="46"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="55"/>
@@ -5834,12 +5842,12 @@
       </c>
       <c r="K60" s="26"/>
       <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
+      <c r="M60" s="46"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
-      <c r="D61" s="56" t="s">
+      <c r="D61" s="52" t="s">
         <v>97</v>
       </c>
       <c r="E61" s="26"/>
@@ -5858,12 +5866,12 @@
       </c>
       <c r="K61" s="27"/>
       <c r="L61" s="26"/>
-      <c r="M61" s="29"/>
+      <c r="M61" s="46"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
-      <c r="D62" s="57"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
       <c r="G62" s="26" t="s">
@@ -5880,12 +5888,12 @@
       </c>
       <c r="K62" s="29"/>
       <c r="L62" s="26"/>
-      <c r="M62" s="29"/>
+      <c r="M62" s="46"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="52" t="s">
         <v>100</v>
       </c>
       <c r="E63" s="28"/>
@@ -5904,12 +5912,12 @@
       </c>
       <c r="K63" s="29"/>
       <c r="L63" s="26"/>
-      <c r="M63" s="29"/>
+      <c r="M63" s="46"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
-      <c r="D64" s="57"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
       <c r="G64" s="26" t="s">
@@ -5926,12 +5934,12 @@
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="26"/>
-      <c r="M64" s="29"/>
+      <c r="M64" s="46"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
-      <c r="D65" s="57"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26" t="s">
@@ -5948,12 +5956,12 @@
       </c>
       <c r="K65" s="27"/>
       <c r="L65" s="26"/>
-      <c r="M65" s="29"/>
+      <c r="M65" s="46"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
-      <c r="D66" s="57"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
       <c r="G66" s="31" t="s">
@@ -5970,12 +5978,12 @@
       </c>
       <c r="K66" s="29"/>
       <c r="L66" s="26"/>
-      <c r="M66" s="29"/>
+      <c r="M66" s="46"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
-      <c r="D67" s="57"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
       <c r="G67" s="31" t="s">
@@ -5992,12 +6000,12 @@
       </c>
       <c r="K67" s="29"/>
       <c r="L67" s="26"/>
-      <c r="M67" s="29"/>
+      <c r="M67" s="46"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
-      <c r="D68" s="58"/>
+      <c r="D68" s="54"/>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
       <c r="G68" s="31" t="s">
@@ -6014,12 +6022,12 @@
       </c>
       <c r="K68" s="27"/>
       <c r="L68" s="26"/>
-      <c r="M68" s="29"/>
+      <c r="M68" s="46"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
-      <c r="D69" s="56" t="s">
+      <c r="D69" s="52" t="s">
         <v>107</v>
       </c>
       <c r="E69" s="28"/>
@@ -6038,12 +6046,12 @@
       </c>
       <c r="K69" s="29"/>
       <c r="L69" s="26"/>
-      <c r="M69" s="29"/>
+      <c r="M69" s="46"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
-      <c r="D70" s="57"/>
+      <c r="D70" s="53"/>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
       <c r="G70" s="31" t="s">
@@ -6060,12 +6068,12 @@
       </c>
       <c r="K70" s="29"/>
       <c r="L70" s="26"/>
-      <c r="M70" s="29"/>
+      <c r="M70" s="46"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
-      <c r="D71" s="58"/>
+      <c r="D71" s="54"/>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
       <c r="G71" s="31" t="s">
@@ -6082,12 +6090,12 @@
       </c>
       <c r="K71" s="27"/>
       <c r="L71" s="26"/>
-      <c r="M71" s="29"/>
+      <c r="M71" s="46"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
-      <c r="D72" s="56" t="s">
+      <c r="D72" s="52" t="s">
         <v>111</v>
       </c>
       <c r="E72" s="28"/>
@@ -6106,12 +6114,12 @@
       </c>
       <c r="K72" s="29"/>
       <c r="L72" s="26"/>
-      <c r="M72" s="29"/>
+      <c r="M72" s="46"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
-      <c r="D73" s="57"/>
+      <c r="D73" s="53"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
       <c r="G73" s="31" t="s">
@@ -6128,12 +6136,12 @@
       </c>
       <c r="K73" s="29"/>
       <c r="L73" s="26"/>
-      <c r="M73" s="29"/>
+      <c r="M73" s="46"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
-      <c r="D74" s="57"/>
+      <c r="D74" s="53"/>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
       <c r="G74" s="31" t="s">
@@ -6150,12 +6158,12 @@
       </c>
       <c r="K74" s="29"/>
       <c r="L74" s="26"/>
-      <c r="M74" s="29"/>
+      <c r="M74" s="46"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
-      <c r="D75" s="58"/>
+      <c r="D75" s="54"/>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="31" t="s">
@@ -6172,7 +6180,7 @@
       </c>
       <c r="K75" s="29"/>
       <c r="L75" s="26"/>
-      <c r="M75" s="29"/>
+      <c r="M75" s="46"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="55"/>
@@ -6196,7 +6204,7 @@
       </c>
       <c r="K76" s="29"/>
       <c r="L76" s="26"/>
-      <c r="M76" s="29"/>
+      <c r="M76" s="46"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="55"/>
@@ -6220,7 +6228,7 @@
       </c>
       <c r="K77" s="29"/>
       <c r="L77" s="26"/>
-      <c r="M77" s="29"/>
+      <c r="M77" s="46"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="55"/>
@@ -6242,7 +6250,7 @@
       </c>
       <c r="K78" s="29"/>
       <c r="L78" s="26"/>
-      <c r="M78" s="29"/>
+      <c r="M78" s="46"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="55"/>
@@ -6264,12 +6272,12 @@
       </c>
       <c r="K79" s="29"/>
       <c r="L79" s="26"/>
-      <c r="M79" s="29"/>
+      <c r="M79" s="46"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
-      <c r="D80" s="56" t="s">
+      <c r="D80" s="52" t="s">
         <v>122</v>
       </c>
       <c r="E80" s="42"/>
@@ -6288,12 +6296,12 @@
       </c>
       <c r="K80" s="29"/>
       <c r="L80" s="26"/>
-      <c r="M80" s="29"/>
+      <c r="M80" s="46"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
-      <c r="D81" s="57"/>
+      <c r="D81" s="53"/>
       <c r="E81" s="42"/>
       <c r="F81" s="26"/>
       <c r="G81" s="20" t="s">
@@ -6310,12 +6318,12 @@
       </c>
       <c r="K81" s="29"/>
       <c r="L81" s="26"/>
-      <c r="M81" s="29"/>
+      <c r="M81" s="46"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
-      <c r="D82" s="57"/>
+      <c r="D82" s="53"/>
       <c r="E82" s="42"/>
       <c r="F82" s="26"/>
       <c r="G82" s="32" t="s">
@@ -6332,7 +6340,7 @@
       </c>
       <c r="K82" s="29"/>
       <c r="L82" s="26"/>
-      <c r="M82" s="29"/>
+      <c r="M82" s="46"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="55"/>
@@ -6360,13 +6368,13 @@
       </c>
       <c r="K83" s="29"/>
       <c r="L83" s="26"/>
-      <c r="M83" s="29"/>
+      <c r="M83" s="46"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
       <c r="D84" s="55"/>
-      <c r="E84" s="56" t="s">
+      <c r="E84" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F84" s="28"/>
@@ -6384,13 +6392,13 @@
       </c>
       <c r="K84" s="29"/>
       <c r="L84" s="26"/>
-      <c r="M84" s="29"/>
+      <c r="M84" s="46"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="55"/>
       <c r="C85" s="55"/>
       <c r="D85" s="55"/>
-      <c r="E85" s="57"/>
+      <c r="E85" s="53"/>
       <c r="F85" s="28"/>
       <c r="G85" s="31" t="s">
         <v>128</v>
@@ -6406,13 +6414,13 @@
       </c>
       <c r="K85" s="29"/>
       <c r="L85" s="26"/>
-      <c r="M85" s="29"/>
+      <c r="M85" s="46"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
       <c r="D86" s="55"/>
-      <c r="E86" s="57"/>
+      <c r="E86" s="53"/>
       <c r="F86" s="28"/>
       <c r="G86" s="31" t="s">
         <v>129</v>
@@ -6428,13 +6436,13 @@
       </c>
       <c r="K86" s="29"/>
       <c r="L86" s="26"/>
-      <c r="M86" s="29"/>
+      <c r="M86" s="46"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="55"/>
       <c r="C87" s="55"/>
       <c r="D87" s="55"/>
-      <c r="E87" s="57"/>
+      <c r="E87" s="53"/>
       <c r="F87" s="28"/>
       <c r="G87" s="31" t="s">
         <v>130</v>
@@ -6450,13 +6458,13 @@
       </c>
       <c r="K87" s="29"/>
       <c r="L87" s="26"/>
-      <c r="M87" s="29"/>
+      <c r="M87" s="46"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="55"/>
       <c r="C88" s="55"/>
       <c r="D88" s="55"/>
-      <c r="E88" s="57"/>
+      <c r="E88" s="53"/>
       <c r="F88" s="28"/>
       <c r="G88" s="31" t="s">
         <v>131</v>
@@ -6472,13 +6480,13 @@
       </c>
       <c r="K88" s="29"/>
       <c r="L88" s="26"/>
-      <c r="M88" s="29"/>
+      <c r="M88" s="46"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="55"/>
       <c r="C89" s="55"/>
       <c r="D89" s="55"/>
-      <c r="E89" s="57"/>
+      <c r="E89" s="53"/>
       <c r="F89" s="28"/>
       <c r="G89" s="31" t="s">
         <v>132</v>
@@ -6494,13 +6502,13 @@
       </c>
       <c r="K89" s="29"/>
       <c r="L89" s="26"/>
-      <c r="M89" s="29"/>
+      <c r="M89" s="46"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
       <c r="D90" s="55"/>
-      <c r="E90" s="58"/>
+      <c r="E90" s="54"/>
       <c r="F90" s="28"/>
       <c r="G90" s="31" t="s">
         <v>133</v>
@@ -6516,7 +6524,7 @@
       </c>
       <c r="K90" s="29"/>
       <c r="L90" s="26"/>
-      <c r="M90" s="29"/>
+      <c r="M90" s="46"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="55"/>
@@ -6540,16 +6548,16 @@
       </c>
       <c r="K91" s="29"/>
       <c r="L91" s="26"/>
-      <c r="M91" s="29"/>
+      <c r="M91" s="46"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
       <c r="D92" s="55"/>
-      <c r="E92" s="56" t="s">
+      <c r="E92" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="F92" s="56" t="s">
+      <c r="F92" s="52" t="s">
         <v>135</v>
       </c>
       <c r="G92" s="25" t="s">
@@ -6566,14 +6574,14 @@
       </c>
       <c r="K92" s="24"/>
       <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
+      <c r="M92" s="25"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="55"/>
       <c r="C93" s="55"/>
       <c r="D93" s="55"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
       <c r="G93" s="25" t="s">
         <v>137</v>
       </c>
@@ -6588,14 +6596,14 @@
       </c>
       <c r="K93" s="24"/>
       <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
+      <c r="M93" s="25"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="55"/>
       <c r="C94" s="55"/>
       <c r="D94" s="55"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="58"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="54"/>
       <c r="G94" s="25" t="s">
         <v>138</v>
       </c>
@@ -6610,14 +6618,14 @@
       </c>
       <c r="K94" s="24"/>
       <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
+      <c r="M94" s="25"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="55"/>
       <c r="C95" s="55"/>
       <c r="D95" s="55"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="56" t="s">
+      <c r="E95" s="53"/>
+      <c r="F95" s="52" t="s">
         <v>32</v>
       </c>
       <c r="G95" s="25" t="s">
@@ -6634,14 +6642,14 @@
       </c>
       <c r="K95" s="24"/>
       <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
+      <c r="M95" s="25"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="55"/>
       <c r="C96" s="55"/>
       <c r="D96" s="55"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
       <c r="G96" s="25" t="s">
         <v>140</v>
       </c>
@@ -6656,12 +6664,12 @@
       </c>
       <c r="K96" s="24"/>
       <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
+      <c r="M96" s="25"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B97" s="55"/>
       <c r="C97" s="55"/>
-      <c r="D97" s="56" t="s">
+      <c r="D97" s="52" t="s">
         <v>141</v>
       </c>
       <c r="E97" s="22"/>
@@ -6680,13 +6688,13 @@
       </c>
       <c r="K97" s="24"/>
       <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
+      <c r="M97" s="25"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="56" t="s">
+      <c r="D98" s="53"/>
+      <c r="E98" s="52" t="s">
         <v>135</v>
       </c>
       <c r="F98" s="22"/>
@@ -6704,13 +6712,13 @@
       </c>
       <c r="K98" s="24"/>
       <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
+      <c r="M98" s="25"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="55"/>
       <c r="C99" s="55"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
       <c r="F99" s="22"/>
       <c r="G99" s="25" t="s">
         <v>146</v>
@@ -6726,13 +6734,13 @@
       </c>
       <c r="K99" s="24"/>
       <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
+      <c r="M99" s="25"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="55"/>
       <c r="C100" s="55"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
       <c r="F100" s="22"/>
       <c r="G100" s="25" t="s">
         <v>145</v>
@@ -6748,13 +6756,13 @@
       </c>
       <c r="K100" s="24"/>
       <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
+      <c r="M100" s="25"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="55"/>
       <c r="C101" s="55"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="58"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="54"/>
       <c r="F101" s="22"/>
       <c r="G101" s="25" t="s">
         <v>144</v>
@@ -6770,13 +6778,13 @@
       </c>
       <c r="K101" s="24"/>
       <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
+      <c r="M101" s="25"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="55"/>
       <c r="C102" s="55"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="56" t="s">
+      <c r="D102" s="53"/>
+      <c r="E102" s="52" t="s">
         <v>32</v>
       </c>
       <c r="F102" s="22"/>
@@ -6794,13 +6802,13 @@
       </c>
       <c r="K102" s="24"/>
       <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
+      <c r="M102" s="25"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="55"/>
       <c r="C103" s="55"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
       <c r="F103" s="22"/>
       <c r="G103" s="25" t="s">
         <v>148</v>
@@ -6816,13 +6824,13 @@
       </c>
       <c r="K103" s="24"/>
       <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
+      <c r="M103" s="25"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="55"/>
       <c r="C104" s="55"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
       <c r="F104" s="22"/>
       <c r="G104" s="25" t="s">
         <v>149</v>
@@ -6838,13 +6846,13 @@
       </c>
       <c r="K104" s="24"/>
       <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
+      <c r="M104" s="25"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="55"/>
       <c r="C105" s="55"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
       <c r="F105" s="22"/>
       <c r="G105" s="25" t="s">
         <v>150</v>
@@ -6860,13 +6868,13 @@
       </c>
       <c r="K105" s="24"/>
       <c r="L105" s="24"/>
-      <c r="M105" s="24"/>
+      <c r="M105" s="25"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="55"/>
       <c r="C106" s="55"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="58"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="54"/>
       <c r="F106" s="22"/>
       <c r="G106" s="25" t="s">
         <v>151</v>
@@ -6882,7 +6890,7 @@
       </c>
       <c r="K106" s="24"/>
       <c r="L106" s="24"/>
-      <c r="M106" s="24"/>
+      <c r="M106" s="25"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="55"/>
@@ -6906,15 +6914,15 @@
       </c>
       <c r="K107" s="24"/>
       <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
+      <c r="M107" s="25"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="55"/>
       <c r="C108" s="55"/>
-      <c r="D108" s="56" t="s">
+      <c r="D108" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="E108" s="56" t="s">
+      <c r="E108" s="52" t="s">
         <v>135</v>
       </c>
       <c r="F108" s="22"/>
@@ -6932,13 +6940,13 @@
       </c>
       <c r="K108" s="24"/>
       <c r="L108" s="24"/>
-      <c r="M108" s="24"/>
+      <c r="M108" s="25"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="55"/>
       <c r="C109" s="55"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="57"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="53"/>
       <c r="F109" s="22"/>
       <c r="G109" s="25" t="s">
         <v>156</v>
@@ -6954,13 +6962,13 @@
       </c>
       <c r="K109" s="24"/>
       <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
+      <c r="M109" s="25"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="55"/>
       <c r="C110" s="55"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="57"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
       <c r="F110" s="22"/>
       <c r="G110" s="25" t="s">
         <v>157</v>
@@ -6976,13 +6984,13 @@
       </c>
       <c r="K110" s="24"/>
       <c r="L110" s="24"/>
-      <c r="M110" s="24"/>
+      <c r="M110" s="25"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="55"/>
       <c r="C111" s="55"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="58"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="54"/>
       <c r="F111" s="22"/>
       <c r="G111" s="25" t="s">
         <v>158</v>
@@ -6998,12 +7006,12 @@
       </c>
       <c r="K111" s="24"/>
       <c r="L111" s="24"/>
-      <c r="M111" s="24"/>
+      <c r="M111" s="25"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="55"/>
       <c r="C112" s="55"/>
-      <c r="D112" s="57"/>
+      <c r="D112" s="53"/>
       <c r="E112" s="55" t="s">
         <v>32</v>
       </c>
@@ -7022,12 +7030,12 @@
       </c>
       <c r="K112" s="24"/>
       <c r="L112" s="24"/>
-      <c r="M112" s="24"/>
+      <c r="M112" s="25"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="55"/>
       <c r="C113" s="55"/>
-      <c r="D113" s="57"/>
+      <c r="D113" s="53"/>
       <c r="E113" s="55"/>
       <c r="F113" s="22"/>
       <c r="G113" s="25" t="s">
@@ -7044,12 +7052,12 @@
       </c>
       <c r="K113" s="24"/>
       <c r="L113" s="24"/>
-      <c r="M113" s="24"/>
+      <c r="M113" s="25"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="55"/>
       <c r="C114" s="55"/>
-      <c r="D114" s="57"/>
+      <c r="D114" s="53"/>
       <c r="E114" s="55"/>
       <c r="F114" s="22"/>
       <c r="G114" s="25" t="s">
@@ -7066,12 +7074,12 @@
       </c>
       <c r="K114" s="24"/>
       <c r="L114" s="24"/>
-      <c r="M114" s="24"/>
+      <c r="M114" s="25"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="55"/>
       <c r="C115" s="55"/>
-      <c r="D115" s="57"/>
+      <c r="D115" s="53"/>
       <c r="E115" s="55"/>
       <c r="F115" s="22"/>
       <c r="G115" s="25" t="s">
@@ -7088,12 +7096,12 @@
       </c>
       <c r="K115" s="24"/>
       <c r="L115" s="24"/>
-      <c r="M115" s="24"/>
+      <c r="M115" s="25"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="55"/>
       <c r="C116" s="55"/>
-      <c r="D116" s="57"/>
+      <c r="D116" s="53"/>
       <c r="E116" s="55"/>
       <c r="F116" s="22"/>
       <c r="G116" s="25" t="s">
@@ -7110,12 +7118,12 @@
       </c>
       <c r="K116" s="24"/>
       <c r="L116" s="24"/>
-      <c r="M116" s="24"/>
+      <c r="M116" s="25"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" s="55"/>
       <c r="C117" s="55"/>
-      <c r="D117" s="57"/>
+      <c r="D117" s="53"/>
       <c r="E117" s="55"/>
       <c r="F117" s="22"/>
       <c r="G117" s="25" t="s">
@@ -7132,12 +7140,12 @@
       </c>
       <c r="K117" s="24"/>
       <c r="L117" s="24"/>
-      <c r="M117" s="24"/>
+      <c r="M117" s="25"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
-      <c r="D118" s="58"/>
+      <c r="D118" s="54"/>
       <c r="E118" s="55"/>
       <c r="F118" s="22"/>
       <c r="G118" s="25" t="s">
@@ -7154,12 +7162,12 @@
       </c>
       <c r="K118" s="24"/>
       <c r="L118" s="24"/>
-      <c r="M118" s="24"/>
+      <c r="M118" s="25"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="55"/>
       <c r="C119" s="55"/>
-      <c r="D119" s="56" t="s">
+      <c r="D119" s="52" t="s">
         <v>165</v>
       </c>
       <c r="E119" s="55" t="s">
@@ -7180,12 +7188,12 @@
       </c>
       <c r="K119" s="24"/>
       <c r="L119" s="24"/>
-      <c r="M119" s="24"/>
+      <c r="M119" s="25"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="55"/>
       <c r="C120" s="55"/>
-      <c r="D120" s="57"/>
+      <c r="D120" s="53"/>
       <c r="E120" s="55"/>
       <c r="F120" s="22"/>
       <c r="G120" s="25" t="s">
@@ -7202,12 +7210,12 @@
       </c>
       <c r="K120" s="24"/>
       <c r="L120" s="24"/>
-      <c r="M120" s="24"/>
+      <c r="M120" s="25"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" s="55"/>
       <c r="C121" s="55"/>
-      <c r="D121" s="57"/>
+      <c r="D121" s="53"/>
       <c r="E121" s="55"/>
       <c r="F121" s="22"/>
       <c r="G121" s="25" t="s">
@@ -7224,13 +7232,13 @@
       </c>
       <c r="K121" s="24"/>
       <c r="L121" s="24"/>
-      <c r="M121" s="24"/>
+      <c r="M121" s="25"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="55"/>
       <c r="C122" s="55"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="56" t="s">
+      <c r="D122" s="53"/>
+      <c r="E122" s="52" t="s">
         <v>32</v>
       </c>
       <c r="F122" s="22"/>
@@ -7248,13 +7256,13 @@
       </c>
       <c r="K122" s="24"/>
       <c r="L122" s="24"/>
-      <c r="M122" s="24"/>
+      <c r="M122" s="25"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" s="55"/>
       <c r="C123" s="55"/>
-      <c r="D123" s="57"/>
-      <c r="E123" s="57"/>
+      <c r="D123" s="53"/>
+      <c r="E123" s="53"/>
       <c r="F123" s="22"/>
       <c r="G123" s="25" t="s">
         <v>170</v>
@@ -7270,13 +7278,13 @@
       </c>
       <c r="K123" s="24"/>
       <c r="L123" s="24"/>
-      <c r="M123" s="24"/>
+      <c r="M123" s="25"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="55"/>
       <c r="C124" s="55"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="57"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="53"/>
       <c r="F124" s="22"/>
       <c r="G124" s="25" t="s">
         <v>171</v>
@@ -7292,13 +7300,13 @@
       </c>
       <c r="K124" s="24"/>
       <c r="L124" s="24"/>
-      <c r="M124" s="24"/>
+      <c r="M124" s="25"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="55"/>
       <c r="C125" s="55"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="57"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="53"/>
       <c r="F125" s="22"/>
       <c r="G125" s="25" t="s">
         <v>172</v>
@@ -7314,13 +7322,13 @@
       </c>
       <c r="K125" s="24"/>
       <c r="L125" s="24"/>
-      <c r="M125" s="24"/>
+      <c r="M125" s="25"/>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="55"/>
       <c r="C126" s="55"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="57"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="53"/>
       <c r="F126" s="22"/>
       <c r="G126" s="25" t="s">
         <v>173</v>
@@ -7336,13 +7344,13 @@
       </c>
       <c r="K126" s="24"/>
       <c r="L126" s="24"/>
-      <c r="M126" s="24"/>
+      <c r="M126" s="25"/>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="55"/>
       <c r="C127" s="55"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="57"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="53"/>
       <c r="F127" s="22"/>
       <c r="G127" s="25" t="s">
         <v>174</v>
@@ -7358,13 +7366,13 @@
       </c>
       <c r="K127" s="24"/>
       <c r="L127" s="24"/>
-      <c r="M127" s="24"/>
+      <c r="M127" s="25"/>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="55"/>
       <c r="C128" s="55"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="57"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
       <c r="F128" s="22"/>
       <c r="G128" s="25" t="s">
         <v>175</v>
@@ -7380,13 +7388,13 @@
       </c>
       <c r="K128" s="24"/>
       <c r="L128" s="24"/>
-      <c r="M128" s="24"/>
+      <c r="M128" s="25"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" s="55"/>
       <c r="C129" s="55"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="54"/>
       <c r="F129" s="22"/>
       <c r="G129" s="25" t="s">
         <v>176</v>
@@ -7402,10 +7410,30 @@
       </c>
       <c r="K129" s="24"/>
       <c r="L129" s="24"/>
-      <c r="M129" s="24"/>
+      <c r="M129" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="C36:C76"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="D42:D46"/>
     <mergeCell ref="F92:F94"/>
     <mergeCell ref="F95:F96"/>
     <mergeCell ref="E92:E96"/>
@@ -7422,29 +7450,9 @@
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="E84:E90"/>
     <mergeCell ref="C15:C35"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="C36:C76"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="D97:D106"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C7:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="18" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="17" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
+++ b/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="259">
   <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행률 :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영어완성_파닉스_1단계_알파벳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영어완성_파닉스_읽기표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,6 +1059,18 @@
   </si>
   <si>
     <t>영어완성_알파벳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_파닉스_알파벳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_파닉스_알파벳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1535,14 +1539,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1550,16 +1551,7 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1572,6 +1564,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1912,24 +1916,24 @@
     <row r="12" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:3" ht="41.25" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="2:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2485,20 +2489,20 @@
     </row>
     <row r="2" spans="1:54" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
       <c r="N2" s="11"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -2655,26 +2659,26 @@
     </row>
     <row r="5" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="48"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="11"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -2718,26 +2722,26 @@
     </row>
     <row r="6" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="47" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="11"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -2781,18 +2785,18 @@
     </row>
     <row r="7" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
       <c r="N7" s="11"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -2836,18 +2840,18 @@
     </row>
     <row r="8" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
       <c r="N8" s="11"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -2891,18 +2895,18 @@
     </row>
     <row r="9" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
       <c r="N9" s="11"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -3937,6 +3941,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -3953,11 +3962,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3974,8 +3978,8 @@
   </sheetPr>
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4021,14 +4025,14 @@
     </row>
     <row r="2" spans="1:29" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
-      <c r="B2" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="B2" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="O2" s="14"/>
@@ -4058,14 +4062,14 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="57">
+        <v>256</v>
+      </c>
+      <c r="K3" s="53">
         <f>ROUND((COUNTIF(J5:J129,"O")/COUNTA(J5:J129))*100,1)</f>
         <v>12</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -4088,16 +4092,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>10</v>
@@ -4106,19 +4110,19 @@
         <v>11</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="M4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -4139,26 +4143,26 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
-      <c r="B5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>188</v>
+      <c r="B5" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>186</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
@@ -4182,22 +4186,22 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>193</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
@@ -4221,24 +4225,24 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55" t="s">
-        <v>26</v>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="J7" s="39" t="s">
         <v>190</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>192</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
@@ -4262,22 +4266,22 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
@@ -4301,24 +4305,24 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="52" t="s">
-        <v>27</v>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
@@ -4342,22 +4346,22 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="53"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
@@ -4381,22 +4385,22 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="53"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
@@ -4420,22 +4424,22 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="54"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
@@ -4459,24 +4463,24 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -4500,24 +4504,24 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J14" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
@@ -4541,24 +4545,24 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55" t="s">
-        <v>34</v>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56" t="s">
+        <v>33</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
@@ -4582,22 +4586,22 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
@@ -4621,24 +4625,24 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
@@ -4662,24 +4666,24 @@
     </row>
     <row r="18" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="52" t="s">
-        <v>41</v>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57" t="s">
+        <v>39</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
@@ -4703,22 +4707,22 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="53"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="26"/>
@@ -4742,22 +4746,22 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="26"/>
@@ -4781,22 +4785,22 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="54"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="26"/>
@@ -4820,24 +4824,24 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="52" t="s">
-        <v>42</v>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="26"/>
@@ -4861,22 +4865,22 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="53"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="26"/>
@@ -4900,24 +4904,24 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="52" t="s">
-        <v>43</v>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="57" t="s">
+        <v>41</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="26"/>
@@ -4941,22 +4945,22 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="26"/>
@@ -4980,22 +4984,22 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="26"/>
@@ -5019,22 +5023,22 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K27" s="27"/>
       <c r="L27" s="26"/>
@@ -5058,22 +5062,22 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28" s="27"/>
       <c r="L28" s="26"/>
@@ -5097,24 +5101,24 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="53"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" s="27"/>
       <c r="L29" s="26"/>
@@ -5137,2276 +5141,2276 @@
       <c r="AC29" s="17"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="G30" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K30" s="27"/>
       <c r="L30" s="26"/>
       <c r="M30" s="46"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I31" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" s="27"/>
       <c r="L31" s="26"/>
       <c r="M31" s="46"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K32" s="27"/>
       <c r="L32" s="26"/>
       <c r="M32" s="46"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K33" s="26"/>
       <c r="L33" s="26"/>
       <c r="M33" s="46"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K34" s="27"/>
       <c r="L34" s="26"/>
       <c r="M34" s="46"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
       <c r="M35" s="46"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="55"/>
-      <c r="C36" s="55" t="s">
-        <v>65</v>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K36" s="27"/>
       <c r="L36" s="26"/>
       <c r="M36" s="46"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
       <c r="G37" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
       <c r="M37" s="46"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="52" t="s">
-        <v>68</v>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57" t="s">
+        <v>66</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="G38" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K38" s="27"/>
       <c r="L38" s="26"/>
       <c r="M38" s="46"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="53"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J39" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K39" s="27"/>
       <c r="L39" s="38"/>
       <c r="M39" s="46"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="54"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K40" s="27"/>
       <c r="L40" s="26"/>
       <c r="M40" s="46"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="46"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="52" t="s">
-        <v>72</v>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="57" t="s">
+        <v>70</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
       <c r="M42" s="46"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="53"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J43" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K43" s="27"/>
       <c r="L43" s="26"/>
       <c r="M43" s="46"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="53"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="58"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K44" s="27"/>
       <c r="L44" s="26"/>
       <c r="M44" s="46"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="53"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="58"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
       <c r="G45" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I45" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
       <c r="M45" s="46"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="54"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I46" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J46" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
       <c r="M46" s="46"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="52" t="s">
-        <v>76</v>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="57" t="s">
+        <v>74</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
       <c r="G47" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I47" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
       <c r="M47" s="46"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="53"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="58"/>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
       <c r="G48" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I48" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
       <c r="M48" s="46"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="54"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I49" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
       <c r="M49" s="46"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="52" t="s">
-        <v>87</v>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
       <c r="G50" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I50" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K50" s="26"/>
       <c r="L50" s="26"/>
       <c r="M50" s="46"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="53"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="58"/>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
       <c r="G51" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
       <c r="M51" s="46"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="53"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="58"/>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K52" s="27"/>
       <c r="L52" s="26"/>
       <c r="M52" s="46"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="53"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="58"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I53" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K53" s="27"/>
       <c r="L53" s="26"/>
       <c r="M53" s="46"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="53"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="58"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
       <c r="G54" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I54" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K54" s="27"/>
       <c r="L54" s="26"/>
       <c r="M54" s="46"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="53"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="58"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
       <c r="G55" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I55" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K55" s="26"/>
       <c r="L55" s="26"/>
       <c r="M55" s="46"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="54"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="59"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
       <c r="G56" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I56" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K56" s="26"/>
       <c r="L56" s="26"/>
       <c r="M56" s="46"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55" t="s">
-        <v>92</v>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56" t="s">
+        <v>90</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
       <c r="G57" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I57" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K57" s="26"/>
       <c r="L57" s="26"/>
       <c r="M57" s="46"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
       <c r="G58" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I58" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K58" s="26"/>
       <c r="L58" s="26"/>
       <c r="M58" s="46"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
       <c r="G59" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I59" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K59" s="26"/>
       <c r="L59" s="26"/>
       <c r="M59" s="46"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
       <c r="G60" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I60" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K60" s="26"/>
       <c r="L60" s="26"/>
       <c r="M60" s="46"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="52" t="s">
-        <v>97</v>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="57" t="s">
+        <v>95</v>
       </c>
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I61" s="40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K61" s="27"/>
       <c r="L61" s="26"/>
       <c r="M61" s="46"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="53"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="58"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
       <c r="G62" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I62" s="40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K62" s="29"/>
       <c r="L62" s="26"/>
       <c r="M62" s="46"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="52" t="s">
-        <v>100</v>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="57" t="s">
+        <v>98</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
       <c r="G63" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I63" s="40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K63" s="29"/>
       <c r="L63" s="26"/>
       <c r="M63" s="46"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="53"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="58"/>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
       <c r="G64" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I64" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="26"/>
       <c r="M64" s="46"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="53"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="58"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I65" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K65" s="27"/>
       <c r="L65" s="26"/>
       <c r="M65" s="46"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="53"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="58"/>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
       <c r="G66" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I66" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K66" s="29"/>
       <c r="L66" s="26"/>
       <c r="M66" s="46"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="53"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="58"/>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
       <c r="G67" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I67" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K67" s="29"/>
       <c r="L67" s="26"/>
       <c r="M67" s="46"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="54"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
       <c r="G68" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I68" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K68" s="27"/>
       <c r="L68" s="26"/>
       <c r="M68" s="46"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="52" t="s">
-        <v>107</v>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="57" t="s">
+        <v>105</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
       <c r="G69" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I69" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K69" s="29"/>
       <c r="L69" s="26"/>
       <c r="M69" s="46"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="53"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
       <c r="G70" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I70" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K70" s="29"/>
       <c r="L70" s="26"/>
       <c r="M70" s="46"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="54"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="59"/>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
       <c r="G71" s="31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I71" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K71" s="27"/>
       <c r="L71" s="26"/>
       <c r="M71" s="46"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="52" t="s">
-        <v>111</v>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="57" t="s">
+        <v>109</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
       <c r="G72" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I72" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K72" s="29"/>
       <c r="L72" s="26"/>
       <c r="M72" s="46"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="53"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="58"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
       <c r="G73" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I73" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K73" s="29"/>
       <c r="L73" s="26"/>
       <c r="M73" s="46"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="53"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="58"/>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
       <c r="G74" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K74" s="29"/>
       <c r="L74" s="26"/>
       <c r="M74" s="46"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="54"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="59"/>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K75" s="29"/>
       <c r="L75" s="26"/>
       <c r="M75" s="46"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="55"/>
-      <c r="C76" s="55"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
       <c r="G76" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H76" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K76" s="29"/>
       <c r="L76" s="26"/>
       <c r="M76" s="46"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="55"/>
-      <c r="C77" s="55" t="s">
-        <v>118</v>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56" t="s">
+        <v>116</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
       <c r="G77" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H77" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K77" s="29"/>
       <c r="L77" s="26"/>
       <c r="M77" s="46"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
       <c r="G78" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H78" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K78" s="29"/>
       <c r="L78" s="26"/>
       <c r="M78" s="46"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
       <c r="G79" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H79" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K79" s="29"/>
       <c r="L79" s="26"/>
       <c r="M79" s="46"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="52" t="s">
-        <v>122</v>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="57" t="s">
+        <v>120</v>
       </c>
       <c r="E80" s="42"/>
       <c r="F80" s="26"/>
       <c r="G80" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I80" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K80" s="29"/>
       <c r="L80" s="26"/>
       <c r="M80" s="46"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="53"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="42"/>
       <c r="F81" s="26"/>
       <c r="G81" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K81" s="29"/>
       <c r="L81" s="26"/>
       <c r="M81" s="46"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="53"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="58"/>
       <c r="E82" s="42"/>
       <c r="F82" s="26"/>
       <c r="G82" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K82" s="29"/>
       <c r="L82" s="26"/>
       <c r="M82" s="46"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55" t="s">
-        <v>123</v>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56" t="s">
+        <v>121</v>
       </c>
       <c r="E83" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H83" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I83" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K83" s="29"/>
       <c r="L83" s="26"/>
       <c r="M83" s="46"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="52" t="s">
-        <v>125</v>
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="57" t="s">
+        <v>123</v>
       </c>
       <c r="F84" s="28"/>
       <c r="G84" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I84" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K84" s="29"/>
       <c r="L84" s="26"/>
       <c r="M84" s="46"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="53"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="58"/>
       <c r="F85" s="28"/>
       <c r="G85" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I85" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K85" s="29"/>
       <c r="L85" s="26"/>
       <c r="M85" s="46"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="53"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="58"/>
       <c r="F86" s="28"/>
       <c r="G86" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K86" s="29"/>
       <c r="L86" s="26"/>
       <c r="M86" s="46"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="53"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="58"/>
       <c r="F87" s="28"/>
       <c r="G87" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H87" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I87" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K87" s="29"/>
       <c r="L87" s="26"/>
       <c r="M87" s="46"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="55"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="53"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="58"/>
       <c r="F88" s="28"/>
       <c r="G88" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I88" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K88" s="29"/>
       <c r="L88" s="26"/>
       <c r="M88" s="46"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B89" s="55"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="53"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="58"/>
       <c r="F89" s="28"/>
       <c r="G89" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H89" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I89" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K89" s="29"/>
       <c r="L89" s="26"/>
       <c r="M89" s="46"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B90" s="55"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="54"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="59"/>
       <c r="F90" s="28"/>
       <c r="G90" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H90" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I90" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K90" s="29"/>
       <c r="L90" s="26"/>
       <c r="M90" s="46"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
       <c r="E91" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F91" s="28"/>
       <c r="G91" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H91" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I91" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K91" s="29"/>
       <c r="L91" s="26"/>
       <c r="M91" s="46"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="52" t="s">
+      <c r="B92" s="56"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F92" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G92" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="F92" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>136</v>
-      </c>
       <c r="H92" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I92" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K92" s="24"/>
       <c r="L92" s="24"/>
       <c r="M92" s="25"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="55"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
       <c r="G93" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I93" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K93" s="24"/>
       <c r="L93" s="24"/>
       <c r="M93" s="25"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B94" s="55"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="54"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="59"/>
       <c r="G94" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I94" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K94" s="24"/>
       <c r="L94" s="24"/>
       <c r="M94" s="25"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="52" t="s">
-        <v>32</v>
+      <c r="B95" s="56"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="57" t="s">
+        <v>31</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I95" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K95" s="24"/>
       <c r="L95" s="24"/>
       <c r="M95" s="25"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="54"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
       <c r="G96" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K96" s="24"/>
       <c r="L96" s="24"/>
       <c r="M96" s="25"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="52" t="s">
-        <v>141</v>
+      <c r="B97" s="56"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="57" t="s">
+        <v>139</v>
       </c>
       <c r="E97" s="22"/>
       <c r="F97" s="22"/>
       <c r="G97" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I97" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K97" s="24"/>
       <c r="L97" s="24"/>
       <c r="M97" s="25"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="52" t="s">
-        <v>135</v>
+      <c r="B98" s="56"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="57" t="s">
+        <v>133</v>
       </c>
       <c r="F98" s="22"/>
       <c r="G98" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I98" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K98" s="24"/>
       <c r="L98" s="24"/>
       <c r="M98" s="25"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
       <c r="F99" s="22"/>
       <c r="G99" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I99" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K99" s="24"/>
       <c r="L99" s="24"/>
       <c r="M99" s="25"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
       <c r="F100" s="22"/>
       <c r="G100" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I100" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K100" s="24"/>
       <c r="L100" s="24"/>
       <c r="M100" s="25"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="54"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="59"/>
       <c r="F101" s="22"/>
       <c r="G101" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I101" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K101" s="24"/>
       <c r="L101" s="24"/>
       <c r="M101" s="25"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B102" s="55"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="52" t="s">
-        <v>32</v>
+      <c r="B102" s="56"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="57" t="s">
+        <v>31</v>
       </c>
       <c r="F102" s="22"/>
       <c r="G102" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I102" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K102" s="24"/>
       <c r="L102" s="24"/>
       <c r="M102" s="25"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B103" s="55"/>
-      <c r="C103" s="55"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
       <c r="F103" s="22"/>
       <c r="G103" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I103" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K103" s="24"/>
       <c r="L103" s="24"/>
       <c r="M103" s="25"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B104" s="55"/>
-      <c r="C104" s="55"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
       <c r="F104" s="22"/>
       <c r="G104" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I104" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K104" s="24"/>
       <c r="L104" s="24"/>
       <c r="M104" s="25"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B105" s="55"/>
-      <c r="C105" s="55"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="53"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
       <c r="F105" s="22"/>
       <c r="G105" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I105" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K105" s="24"/>
       <c r="L105" s="24"/>
       <c r="M105" s="25"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B106" s="55"/>
-      <c r="C106" s="55"/>
-      <c r="D106" s="53"/>
-      <c r="E106" s="54"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="59"/>
       <c r="F106" s="22"/>
       <c r="G106" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I106" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K106" s="24"/>
       <c r="L106" s="24"/>
       <c r="M106" s="25"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B107" s="55"/>
-      <c r="C107" s="55"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="56"/>
       <c r="D107" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
       <c r="G107" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I107" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K107" s="24"/>
       <c r="L107" s="24"/>
       <c r="M107" s="25"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B108" s="55"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="E108" s="52" t="s">
-        <v>135</v>
+      <c r="B108" s="56"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E108" s="57" t="s">
+        <v>133</v>
       </c>
       <c r="F108" s="22"/>
       <c r="G108" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I108" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K108" s="24"/>
       <c r="L108" s="24"/>
       <c r="M108" s="25"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B109" s="55"/>
-      <c r="C109" s="55"/>
-      <c r="D109" s="53"/>
-      <c r="E109" s="53"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="58"/>
       <c r="F109" s="22"/>
       <c r="G109" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I109" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K109" s="24"/>
       <c r="L109" s="24"/>
       <c r="M109" s="25"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B110" s="55"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="53"/>
-      <c r="E110" s="53"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
       <c r="F110" s="22"/>
       <c r="G110" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I110" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J110" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K110" s="24"/>
       <c r="L110" s="24"/>
       <c r="M110" s="25"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B111" s="55"/>
-      <c r="C111" s="55"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="54"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="59"/>
       <c r="F111" s="22"/>
       <c r="G111" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I111" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J111" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K111" s="24"/>
       <c r="L111" s="24"/>
       <c r="M111" s="25"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B112" s="55"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="53"/>
-      <c r="E112" s="55" t="s">
-        <v>32</v>
+      <c r="B112" s="56"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="56" t="s">
+        <v>31</v>
       </c>
       <c r="F112" s="22"/>
       <c r="G112" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I112" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K112" s="24"/>
       <c r="L112" s="24"/>
       <c r="M112" s="25"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B113" s="55"/>
-      <c r="C113" s="55"/>
-      <c r="D113" s="53"/>
-      <c r="E113" s="55"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="56"/>
       <c r="F113" s="22"/>
       <c r="G113" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I113" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K113" s="24"/>
       <c r="L113" s="24"/>
       <c r="M113" s="25"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B114" s="55"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="53"/>
-      <c r="E114" s="55"/>
+      <c r="B114" s="56"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="56"/>
       <c r="F114" s="22"/>
       <c r="G114" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I114" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K114" s="24"/>
       <c r="L114" s="24"/>
       <c r="M114" s="25"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B115" s="55"/>
-      <c r="C115" s="55"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="55"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="56"/>
       <c r="F115" s="22"/>
       <c r="G115" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I115" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K115" s="24"/>
       <c r="L115" s="24"/>
       <c r="M115" s="25"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B116" s="55"/>
-      <c r="C116" s="55"/>
-      <c r="D116" s="53"/>
-      <c r="E116" s="55"/>
+      <c r="B116" s="56"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="56"/>
       <c r="F116" s="22"/>
       <c r="G116" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I116" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K116" s="24"/>
       <c r="L116" s="24"/>
       <c r="M116" s="25"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B117" s="55"/>
-      <c r="C117" s="55"/>
-      <c r="D117" s="53"/>
-      <c r="E117" s="55"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="56"/>
       <c r="F117" s="22"/>
       <c r="G117" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I117" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K117" s="24"/>
       <c r="L117" s="24"/>
       <c r="M117" s="25"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B118" s="55"/>
-      <c r="C118" s="55"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="55"/>
+      <c r="B118" s="56"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="56"/>
       <c r="F118" s="22"/>
       <c r="G118" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I118" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K118" s="24"/>
       <c r="L118" s="24"/>
       <c r="M118" s="25"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B119" s="55"/>
-      <c r="C119" s="55"/>
-      <c r="D119" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E119" s="55" t="s">
-        <v>135</v>
+      <c r="B119" s="56"/>
+      <c r="C119" s="56"/>
+      <c r="D119" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E119" s="56" t="s">
+        <v>133</v>
       </c>
       <c r="F119" s="22"/>
       <c r="G119" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I119" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K119" s="24"/>
       <c r="L119" s="24"/>
       <c r="M119" s="25"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B120" s="55"/>
-      <c r="C120" s="55"/>
-      <c r="D120" s="53"/>
-      <c r="E120" s="55"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="56"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="56"/>
       <c r="F120" s="22"/>
       <c r="G120" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I120" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K120" s="24"/>
       <c r="L120" s="24"/>
       <c r="M120" s="25"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B121" s="55"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="55"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="56"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="56"/>
       <c r="F121" s="22"/>
       <c r="G121" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I121" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J121" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K121" s="24"/>
       <c r="L121" s="24"/>
       <c r="M121" s="25"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B122" s="55"/>
-      <c r="C122" s="55"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="52" t="s">
-        <v>32</v>
+      <c r="B122" s="56"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="57" t="s">
+        <v>31</v>
       </c>
       <c r="F122" s="22"/>
       <c r="G122" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I122" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K122" s="24"/>
       <c r="L122" s="24"/>
       <c r="M122" s="25"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B123" s="55"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="53"/>
-      <c r="E123" s="53"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="58"/>
+      <c r="E123" s="58"/>
       <c r="F123" s="22"/>
       <c r="G123" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I123" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J123" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K123" s="24"/>
       <c r="L123" s="24"/>
       <c r="M123" s="25"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B124" s="55"/>
-      <c r="C124" s="55"/>
-      <c r="D124" s="53"/>
-      <c r="E124" s="53"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="58"/>
+      <c r="E124" s="58"/>
       <c r="F124" s="22"/>
       <c r="G124" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I124" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K124" s="24"/>
       <c r="L124" s="24"/>
       <c r="M124" s="25"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B125" s="55"/>
-      <c r="C125" s="55"/>
-      <c r="D125" s="53"/>
-      <c r="E125" s="53"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="58"/>
+      <c r="E125" s="58"/>
       <c r="F125" s="22"/>
       <c r="G125" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I125" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J125" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K125" s="24"/>
       <c r="L125" s="24"/>
       <c r="M125" s="25"/>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B126" s="55"/>
-      <c r="C126" s="55"/>
-      <c r="D126" s="53"/>
-      <c r="E126" s="53"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="58"/>
+      <c r="E126" s="58"/>
       <c r="F126" s="22"/>
       <c r="G126" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I126" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J126" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K126" s="24"/>
       <c r="L126" s="24"/>
       <c r="M126" s="25"/>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B127" s="55"/>
-      <c r="C127" s="55"/>
-      <c r="D127" s="53"/>
-      <c r="E127" s="53"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
       <c r="F127" s="22"/>
       <c r="G127" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I127" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J127" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K127" s="24"/>
       <c r="L127" s="24"/>
       <c r="M127" s="25"/>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B128" s="55"/>
-      <c r="C128" s="55"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="53"/>
+      <c r="B128" s="56"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="58"/>
       <c r="F128" s="22"/>
       <c r="G128" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I128" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K128" s="24"/>
       <c r="L128" s="24"/>
       <c r="M128" s="25"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B129" s="55"/>
-      <c r="C129" s="55"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="54"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="59"/>
+      <c r="E129" s="59"/>
       <c r="F129" s="22"/>
       <c r="G129" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I129" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J129" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K129" s="24"/>
       <c r="L129" s="24"/>
@@ -7414,26 +7418,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="D97:D106"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="C36:C76"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="D42:D46"/>
     <mergeCell ref="F92:F94"/>
     <mergeCell ref="F95:F96"/>
     <mergeCell ref="E92:E96"/>
@@ -7450,6 +7434,26 @@
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="E84:E90"/>
     <mergeCell ref="C15:C35"/>
+    <mergeCell ref="C36:C76"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C7:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
+++ b/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
@@ -9,11 +9,13 @@
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
     <sheet name="Revision History" sheetId="3" r:id="rId2"/>
-    <sheet name="퍼블리싱" sheetId="2" r:id="rId3"/>
+    <sheet name="초등" sheetId="2" r:id="rId3"/>
+    <sheet name="중등" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision History'!$A$1:$N$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">퍼블리싱!$A$1:$AC$158</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">중등!$A$1:$AB$131</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">초등!$A$1:$AC$158</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$H$43</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="398">
   <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1049,10 +1051,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HOMELERN HYBRID LIST(초등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수학완성_영역별수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,6 +1060,552 @@
   </si>
   <si>
     <t>영어완성_알파벳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_점프_시험지리스트 팝업 (이미지 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_점프_시험지리스트 팝업_빈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험전문관_문제은행_시험지관리_시험지생성 레이어 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험전문관_문제은행_시험지관리_자동시험지생성 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험전문관_문제은행_시험지관리_나의시험지정보 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험전문관_문제은행_시험지관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험전문관_문제은행_시험지관리_빈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험전문관_문제은행_시험지생성 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험전문관_문제은행_DIY시험지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험전문관_문제은행_AI시험지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험전문관_문제은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험전문관_상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험전문관_상세강좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험전문관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_인증시험_슬라이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증시험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_생생실험실_상세강좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_생생실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생생실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_평가학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_진단검사_학습스트레스검사 완료 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_진단검사_학습전략검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_진단검사_학습전략검사 완료 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_진단검사_학습전략검사 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_직업탐색_직업검색_완료_내가찜한직업 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_직업탐색_직업검색_완료_찜 레이어 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_직업탐색_직업검색_완료_미래직업등록 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_직업탐색_직업검색_완료 (3tabs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_직업탐색_직업검색_완료_로딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_직업탐색_직업검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_직업탐색_직업검색_빈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_직업탐색_검사하러가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_진단검사_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_진단검사_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_진단검사_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_진단검사_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_진단검사_빈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_로드맵_기본정보_주소검색 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_로드맵_기본정보_레이어 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_로드맵_기본정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_로드맵_시작하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_탐색_목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_질문_5</t>
+  </si>
+  <si>
+    <t>특별학습_나대로_질문_4</t>
+  </si>
+  <si>
+    <t>특별학습_나대로_질문_3</t>
+  </si>
+  <si>
+    <t>특별학습_나대로_질문_2</t>
+  </si>
+  <si>
+    <t>특별학습_나대로_질문_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_시작하기_로딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_나대로_시작하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나대로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_글로벌리더쉽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌리더쉽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_3분과학_상세강좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_3분과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3분과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_토핑영어VOCA_학습커리큘럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_토핑영어VOCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토핑영어VOCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_토핑영어_리스닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_토핑영어_슬라이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_토핑영어_학습커리큘럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_토핑영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토핑영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_이러닝존_레벨테스트시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_이러닝존_수준별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_이러닝존_영어듣기능력평가_안내_슬라이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_이러닝존_영어듣기능력평가_안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_이러닝존_영어듣기능력평가_목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_이러닝존_내공상자담기_완료 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_이러닝존_내공상자담기_확인 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_이러닝존_내공상자담기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_이러닝존_상세정보 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_이러닝존_강좌소개 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_이러닝존_상세강좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_이러닝존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이러닝존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_영어신문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어신문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관_생활속영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활속영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어전문관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학전문관_젤리수학_상세강좌_심화학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학전문관_젤리수학_상세강좌_전문관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학전문관_젤리수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젤리수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학전문관_수학핵심상의_상세강좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학전문관_수학핵심강의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학핵심강의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학전문관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준 진도 적용 불가 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내신학습_예비중학_내신집중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내신학습_예비중학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예비중학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내신학습_영어</t>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내신학습_역사</t>
+  </si>
+  <si>
+    <t>역사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내신학습_수학</t>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내신학습_사회</t>
+  </si>
+  <si>
+    <t>사회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내신학습_시험만점_TIP</t>
+  </si>
+  <si>
+    <t>내신학습_시험만점_오답노트_시험대비특강</t>
+  </si>
+  <si>
+    <t>내신학습_시험만점_오답노트(화면 존재 X)</t>
+  </si>
+  <si>
+    <t>내신학습_시험만점_오답노트_빈화면</t>
+  </si>
+  <si>
+    <t>내신학습_시험만점_단원평가_과학</t>
+  </si>
+  <si>
+    <t>내신학습_시험만점_단원평가_수학</t>
+  </si>
+  <si>
+    <t>내신학습_시험만점_실력평가</t>
+  </si>
+  <si>
+    <t>시험만점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내신학습_내신집중</t>
+  </si>
+  <si>
+    <t>내신집중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내신학습_국어</t>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내신학습_과학</t>
+  </si>
+  <si>
+    <t>과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~3학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내신학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼블리싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOMELERN HYBRID LIST (중등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOMELERN HYBRID LIST (초등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,7 +1932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1527,11 +2071,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1539,10 +2089,16 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1554,17 +2110,20 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1879,7 +2438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2477,20 +3036,20 @@
     </row>
     <row r="2" spans="1:54" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="11"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -2647,26 +3206,26 @@
     </row>
     <row r="5" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="50"/>
+      <c r="M5" s="48"/>
       <c r="N5" s="11"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -2714,18 +3273,18 @@
         <v>22</v>
       </c>
       <c r="C6" s="47"/>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
       <c r="L6" s="47" t="s">
         <v>7</v>
       </c>
@@ -2775,14 +3334,14 @@
       <c r="A7" s="11"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
       <c r="N7" s="11"/>
@@ -2830,14 +3389,14 @@
       <c r="A8" s="11"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
       <c r="N8" s="11"/>
@@ -2885,14 +3444,14 @@
       <c r="A9" s="11"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
       <c r="L9" s="47"/>
       <c r="M9" s="47"/>
       <c r="N9" s="11"/>
@@ -3929,11 +4488,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -3950,6 +4504,11 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3966,8 +4525,8 @@
   </sheetPr>
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4013,14 +4572,14 @@
     </row>
     <row r="2" spans="1:29" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
-      <c r="B2" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="B2" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="O2" s="14"/>
@@ -4052,12 +4611,12 @@
       <c r="J3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="56">
         <f>ROUND((COUNTIF(J5:J129,"O")/COUNTA(J5:J129))*100,1)</f>
         <v>10.4</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -4295,7 +4854,7 @@
       <c r="A9" s="15"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="26"/>
@@ -4336,7 +4895,7 @@
       <c r="A10" s="15"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
-      <c r="D10" s="57"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26" t="s">
@@ -4375,7 +4934,7 @@
       <c r="A11" s="15"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
-      <c r="D11" s="57"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26" t="s">
@@ -4414,7 +4973,7 @@
       <c r="A12" s="15"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
-      <c r="D12" s="58"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26" t="s">
@@ -4462,7 +5021,7 @@
         <v>178</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>199</v>
@@ -4503,7 +5062,7 @@
         <v>177</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>200</v>
@@ -4624,7 +5183,7 @@
         <v>36</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>202</v>
@@ -4656,7 +5215,7 @@
       <c r="A18" s="15"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="26"/>
@@ -4697,7 +5256,7 @@
       <c r="A19" s="15"/>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
-      <c r="D19" s="57"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26" t="s">
@@ -4736,7 +5295,7 @@
       <c r="A20" s="15"/>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
-      <c r="D20" s="57"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26" t="s">
@@ -4775,7 +5334,7 @@
       <c r="A21" s="15"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
-      <c r="D21" s="58"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26" t="s">
@@ -4814,7 +5373,7 @@
       <c r="A22" s="15"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="52" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="26"/>
@@ -4855,7 +5414,7 @@
       <c r="A23" s="15"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
-      <c r="D23" s="57"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="26" t="s">
@@ -4894,8 +5453,8 @@
       <c r="A24" s="15"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="56" t="s">
+      <c r="D24" s="53"/>
+      <c r="E24" s="52" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="26"/>
@@ -4935,8 +5494,8 @@
       <c r="A25" s="15"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26" t="s">
         <v>84</v>
@@ -4974,8 +5533,8 @@
       <c r="A26" s="15"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26" t="s">
         <v>45</v>
@@ -5013,8 +5572,8 @@
       <c r="A27" s="15"/>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26" t="s">
         <v>44</v>
@@ -5052,8 +5611,8 @@
       <c r="A28" s="15"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26" t="s">
         <v>47</v>
@@ -5091,7 +5650,7 @@
       <c r="A29" s="15"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
-      <c r="D29" s="57"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="26" t="s">
         <v>48</v>
       </c>
@@ -5321,7 +5880,7 @@
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="52" t="s">
         <v>68</v>
       </c>
       <c r="E38" s="26"/>
@@ -5345,7 +5904,7 @@
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
-      <c r="D39" s="57"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38" t="s">
@@ -5367,7 +5926,7 @@
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
-      <c r="D40" s="58"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26" t="s">
@@ -5413,7 +5972,7 @@
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="52" t="s">
         <v>72</v>
       </c>
       <c r="E42" s="26"/>
@@ -5437,7 +5996,7 @@
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
-      <c r="D43" s="57"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26" t="s">
@@ -5459,7 +6018,7 @@
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
-      <c r="D44" s="57"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26" t="s">
@@ -5481,7 +6040,7 @@
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
-      <c r="D45" s="57"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
       <c r="G45" s="26" t="s">
@@ -5503,7 +6062,7 @@
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
-      <c r="D46" s="58"/>
+      <c r="D46" s="54"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="38" t="s">
@@ -5525,7 +6084,7 @@
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="52" t="s">
         <v>76</v>
       </c>
       <c r="E47" s="28"/>
@@ -5549,7 +6108,7 @@
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
-      <c r="D48" s="57"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
       <c r="G48" s="26" t="s">
@@ -5571,7 +6130,7 @@
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
-      <c r="D49" s="58"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="26" t="s">
@@ -5593,7 +6152,7 @@
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
-      <c r="D50" s="56" t="s">
+      <c r="D50" s="52" t="s">
         <v>87</v>
       </c>
       <c r="E50" s="28"/>
@@ -5617,7 +6176,7 @@
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
-      <c r="D51" s="57"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
       <c r="G51" s="26" t="s">
@@ -5639,7 +6198,7 @@
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
-      <c r="D52" s="57"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="26" t="s">
@@ -5661,7 +6220,7 @@
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
-      <c r="D53" s="57"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="26" t="s">
@@ -5683,7 +6242,7 @@
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
-      <c r="D54" s="57"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
       <c r="G54" s="26" t="s">
@@ -5705,7 +6264,7 @@
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
-      <c r="D55" s="57"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
       <c r="G55" s="26" t="s">
@@ -5727,7 +6286,7 @@
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
-      <c r="D56" s="58"/>
+      <c r="D56" s="54"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
       <c r="G56" s="26" t="s">
@@ -5839,7 +6398,7 @@
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
-      <c r="D61" s="56" t="s">
+      <c r="D61" s="52" t="s">
         <v>97</v>
       </c>
       <c r="E61" s="26"/>
@@ -5863,7 +6422,7 @@
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
-      <c r="D62" s="57"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
       <c r="G62" s="26" t="s">
@@ -5885,7 +6444,7 @@
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="52" t="s">
         <v>100</v>
       </c>
       <c r="E63" s="28"/>
@@ -5909,7 +6468,7 @@
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
-      <c r="D64" s="57"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
       <c r="G64" s="26" t="s">
@@ -5931,7 +6490,7 @@
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
-      <c r="D65" s="57"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26" t="s">
@@ -5953,7 +6512,7 @@
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
-      <c r="D66" s="57"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
       <c r="G66" s="31" t="s">
@@ -5975,7 +6534,7 @@
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
-      <c r="D67" s="57"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
       <c r="G67" s="31" t="s">
@@ -5997,7 +6556,7 @@
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
-      <c r="D68" s="58"/>
+      <c r="D68" s="54"/>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
       <c r="G68" s="31" t="s">
@@ -6019,7 +6578,7 @@
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
-      <c r="D69" s="56" t="s">
+      <c r="D69" s="52" t="s">
         <v>107</v>
       </c>
       <c r="E69" s="28"/>
@@ -6043,7 +6602,7 @@
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
-      <c r="D70" s="57"/>
+      <c r="D70" s="53"/>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
       <c r="G70" s="31" t="s">
@@ -6065,7 +6624,7 @@
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
-      <c r="D71" s="58"/>
+      <c r="D71" s="54"/>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
       <c r="G71" s="31" t="s">
@@ -6087,7 +6646,7 @@
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
-      <c r="D72" s="56" t="s">
+      <c r="D72" s="52" t="s">
         <v>111</v>
       </c>
       <c r="E72" s="28"/>
@@ -6111,7 +6670,7 @@
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
-      <c r="D73" s="57"/>
+      <c r="D73" s="53"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
       <c r="G73" s="31" t="s">
@@ -6133,7 +6692,7 @@
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
-      <c r="D74" s="57"/>
+      <c r="D74" s="53"/>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
       <c r="G74" s="31" t="s">
@@ -6155,7 +6714,7 @@
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
-      <c r="D75" s="58"/>
+      <c r="D75" s="54"/>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="31" t="s">
@@ -6269,7 +6828,7 @@
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
-      <c r="D80" s="56" t="s">
+      <c r="D80" s="52" t="s">
         <v>122</v>
       </c>
       <c r="E80" s="42"/>
@@ -6293,7 +6852,7 @@
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
-      <c r="D81" s="57"/>
+      <c r="D81" s="53"/>
       <c r="E81" s="42"/>
       <c r="F81" s="26"/>
       <c r="G81" s="20" t="s">
@@ -6315,7 +6874,7 @@
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
-      <c r="D82" s="57"/>
+      <c r="D82" s="53"/>
       <c r="E82" s="42"/>
       <c r="F82" s="26"/>
       <c r="G82" s="32" t="s">
@@ -6366,7 +6925,7 @@
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
       <c r="D84" s="55"/>
-      <c r="E84" s="56" t="s">
+      <c r="E84" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F84" s="28"/>
@@ -6390,7 +6949,7 @@
       <c r="B85" s="55"/>
       <c r="C85" s="55"/>
       <c r="D85" s="55"/>
-      <c r="E85" s="57"/>
+      <c r="E85" s="53"/>
       <c r="F85" s="28"/>
       <c r="G85" s="31" t="s">
         <v>128</v>
@@ -6412,7 +6971,7 @@
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
       <c r="D86" s="55"/>
-      <c r="E86" s="57"/>
+      <c r="E86" s="53"/>
       <c r="F86" s="28"/>
       <c r="G86" s="31" t="s">
         <v>129</v>
@@ -6434,7 +6993,7 @@
       <c r="B87" s="55"/>
       <c r="C87" s="55"/>
       <c r="D87" s="55"/>
-      <c r="E87" s="57"/>
+      <c r="E87" s="53"/>
       <c r="F87" s="28"/>
       <c r="G87" s="31" t="s">
         <v>130</v>
@@ -6456,7 +7015,7 @@
       <c r="B88" s="55"/>
       <c r="C88" s="55"/>
       <c r="D88" s="55"/>
-      <c r="E88" s="57"/>
+      <c r="E88" s="53"/>
       <c r="F88" s="28"/>
       <c r="G88" s="31" t="s">
         <v>131</v>
@@ -6478,7 +7037,7 @@
       <c r="B89" s="55"/>
       <c r="C89" s="55"/>
       <c r="D89" s="55"/>
-      <c r="E89" s="57"/>
+      <c r="E89" s="53"/>
       <c r="F89" s="28"/>
       <c r="G89" s="31" t="s">
         <v>132</v>
@@ -6500,7 +7059,7 @@
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
       <c r="D90" s="55"/>
-      <c r="E90" s="58"/>
+      <c r="E90" s="54"/>
       <c r="F90" s="28"/>
       <c r="G90" s="31" t="s">
         <v>133</v>
@@ -6546,10 +7105,10 @@
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
       <c r="D92" s="55"/>
-      <c r="E92" s="56" t="s">
+      <c r="E92" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="F92" s="56" t="s">
+      <c r="F92" s="52" t="s">
         <v>135</v>
       </c>
       <c r="G92" s="25" t="s">
@@ -6572,8 +7131,8 @@
       <c r="B93" s="55"/>
       <c r="C93" s="55"/>
       <c r="D93" s="55"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
       <c r="G93" s="25" t="s">
         <v>137</v>
       </c>
@@ -6594,8 +7153,8 @@
       <c r="B94" s="55"/>
       <c r="C94" s="55"/>
       <c r="D94" s="55"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="58"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="54"/>
       <c r="G94" s="25" t="s">
         <v>138</v>
       </c>
@@ -6616,8 +7175,8 @@
       <c r="B95" s="55"/>
       <c r="C95" s="55"/>
       <c r="D95" s="55"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="56" t="s">
+      <c r="E95" s="53"/>
+      <c r="F95" s="52" t="s">
         <v>32</v>
       </c>
       <c r="G95" s="25" t="s">
@@ -6640,8 +7199,8 @@
       <c r="B96" s="55"/>
       <c r="C96" s="55"/>
       <c r="D96" s="55"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
       <c r="G96" s="25" t="s">
         <v>140</v>
       </c>
@@ -6661,7 +7220,7 @@
     <row r="97" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B97" s="55"/>
       <c r="C97" s="55"/>
-      <c r="D97" s="56" t="s">
+      <c r="D97" s="52" t="s">
         <v>141</v>
       </c>
       <c r="E97" s="22"/>
@@ -6685,8 +7244,8 @@
     <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="56" t="s">
+      <c r="D98" s="53"/>
+      <c r="E98" s="52" t="s">
         <v>135</v>
       </c>
       <c r="F98" s="22"/>
@@ -6709,8 +7268,8 @@
     <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="55"/>
       <c r="C99" s="55"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
       <c r="F99" s="22"/>
       <c r="G99" s="25" t="s">
         <v>146</v>
@@ -6731,8 +7290,8 @@
     <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="55"/>
       <c r="C100" s="55"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
       <c r="F100" s="22"/>
       <c r="G100" s="25" t="s">
         <v>145</v>
@@ -6753,8 +7312,8 @@
     <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="55"/>
       <c r="C101" s="55"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="58"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="54"/>
       <c r="F101" s="22"/>
       <c r="G101" s="25" t="s">
         <v>144</v>
@@ -6775,8 +7334,8 @@
     <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="55"/>
       <c r="C102" s="55"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="56" t="s">
+      <c r="D102" s="53"/>
+      <c r="E102" s="52" t="s">
         <v>32</v>
       </c>
       <c r="F102" s="22"/>
@@ -6799,8 +7358,8 @@
     <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="55"/>
       <c r="C103" s="55"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
       <c r="F103" s="22"/>
       <c r="G103" s="25" t="s">
         <v>148</v>
@@ -6821,8 +7380,8 @@
     <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="55"/>
       <c r="C104" s="55"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
       <c r="F104" s="22"/>
       <c r="G104" s="25" t="s">
         <v>149</v>
@@ -6843,8 +7402,8 @@
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="55"/>
       <c r="C105" s="55"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
       <c r="F105" s="22"/>
       <c r="G105" s="25" t="s">
         <v>150</v>
@@ -6865,8 +7424,8 @@
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="55"/>
       <c r="C106" s="55"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="58"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="54"/>
       <c r="F106" s="22"/>
       <c r="G106" s="25" t="s">
         <v>151</v>
@@ -6911,10 +7470,10 @@
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="55"/>
       <c r="C108" s="55"/>
-      <c r="D108" s="56" t="s">
+      <c r="D108" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="E108" s="56" t="s">
+      <c r="E108" s="52" t="s">
         <v>135</v>
       </c>
       <c r="F108" s="22"/>
@@ -6937,8 +7496,8 @@
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="55"/>
       <c r="C109" s="55"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="57"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="53"/>
       <c r="F109" s="22"/>
       <c r="G109" s="25" t="s">
         <v>156</v>
@@ -6959,8 +7518,8 @@
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="55"/>
       <c r="C110" s="55"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="57"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
       <c r="F110" s="22"/>
       <c r="G110" s="25" t="s">
         <v>157</v>
@@ -6981,8 +7540,8 @@
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="55"/>
       <c r="C111" s="55"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="58"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="54"/>
       <c r="F111" s="22"/>
       <c r="G111" s="25" t="s">
         <v>158</v>
@@ -7003,7 +7562,7 @@
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="55"/>
       <c r="C112" s="55"/>
-      <c r="D112" s="57"/>
+      <c r="D112" s="53"/>
       <c r="E112" s="55" t="s">
         <v>32</v>
       </c>
@@ -7027,7 +7586,7 @@
     <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="55"/>
       <c r="C113" s="55"/>
-      <c r="D113" s="57"/>
+      <c r="D113" s="53"/>
       <c r="E113" s="55"/>
       <c r="F113" s="22"/>
       <c r="G113" s="25" t="s">
@@ -7049,7 +7608,7 @@
     <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="55"/>
       <c r="C114" s="55"/>
-      <c r="D114" s="57"/>
+      <c r="D114" s="53"/>
       <c r="E114" s="55"/>
       <c r="F114" s="22"/>
       <c r="G114" s="25" t="s">
@@ -7071,7 +7630,7 @@
     <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="55"/>
       <c r="C115" s="55"/>
-      <c r="D115" s="57"/>
+      <c r="D115" s="53"/>
       <c r="E115" s="55"/>
       <c r="F115" s="22"/>
       <c r="G115" s="25" t="s">
@@ -7093,7 +7652,7 @@
     <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="55"/>
       <c r="C116" s="55"/>
-      <c r="D116" s="57"/>
+      <c r="D116" s="53"/>
       <c r="E116" s="55"/>
       <c r="F116" s="22"/>
       <c r="G116" s="25" t="s">
@@ -7115,7 +7674,7 @@
     <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" s="55"/>
       <c r="C117" s="55"/>
-      <c r="D117" s="57"/>
+      <c r="D117" s="53"/>
       <c r="E117" s="55"/>
       <c r="F117" s="22"/>
       <c r="G117" s="25" t="s">
@@ -7137,7 +7696,7 @@
     <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
-      <c r="D118" s="58"/>
+      <c r="D118" s="54"/>
       <c r="E118" s="55"/>
       <c r="F118" s="22"/>
       <c r="G118" s="25" t="s">
@@ -7159,7 +7718,7 @@
     <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="55"/>
       <c r="C119" s="55"/>
-      <c r="D119" s="56" t="s">
+      <c r="D119" s="52" t="s">
         <v>165</v>
       </c>
       <c r="E119" s="55" t="s">
@@ -7185,7 +7744,7 @@
     <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="55"/>
       <c r="C120" s="55"/>
-      <c r="D120" s="57"/>
+      <c r="D120" s="53"/>
       <c r="E120" s="55"/>
       <c r="F120" s="22"/>
       <c r="G120" s="25" t="s">
@@ -7207,7 +7766,7 @@
     <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" s="55"/>
       <c r="C121" s="55"/>
-      <c r="D121" s="57"/>
+      <c r="D121" s="53"/>
       <c r="E121" s="55"/>
       <c r="F121" s="22"/>
       <c r="G121" s="25" t="s">
@@ -7229,8 +7788,8 @@
     <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="55"/>
       <c r="C122" s="55"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="56" t="s">
+      <c r="D122" s="53"/>
+      <c r="E122" s="52" t="s">
         <v>32</v>
       </c>
       <c r="F122" s="22"/>
@@ -7253,8 +7812,8 @@
     <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" s="55"/>
       <c r="C123" s="55"/>
-      <c r="D123" s="57"/>
-      <c r="E123" s="57"/>
+      <c r="D123" s="53"/>
+      <c r="E123" s="53"/>
       <c r="F123" s="22"/>
       <c r="G123" s="25" t="s">
         <v>170</v>
@@ -7275,8 +7834,8 @@
     <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="55"/>
       <c r="C124" s="55"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="57"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="53"/>
       <c r="F124" s="22"/>
       <c r="G124" s="25" t="s">
         <v>171</v>
@@ -7297,8 +7856,8 @@
     <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="55"/>
       <c r="C125" s="55"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="57"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="53"/>
       <c r="F125" s="22"/>
       <c r="G125" s="25" t="s">
         <v>172</v>
@@ -7319,8 +7878,8 @@
     <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="55"/>
       <c r="C126" s="55"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="57"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="53"/>
       <c r="F126" s="22"/>
       <c r="G126" s="25" t="s">
         <v>173</v>
@@ -7341,8 +7900,8 @@
     <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="55"/>
       <c r="C127" s="55"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="57"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="53"/>
       <c r="F127" s="22"/>
       <c r="G127" s="25" t="s">
         <v>174</v>
@@ -7363,8 +7922,8 @@
     <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="55"/>
       <c r="C128" s="55"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="57"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
       <c r="F128" s="22"/>
       <c r="G128" s="25" t="s">
         <v>175</v>
@@ -7385,8 +7944,8 @@
     <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" s="55"/>
       <c r="C129" s="55"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="54"/>
       <c r="F129" s="22"/>
       <c r="G129" s="25" t="s">
         <v>176</v>
@@ -7406,6 +7965,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="C36:C76"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="D42:D46"/>
     <mergeCell ref="F92:F94"/>
     <mergeCell ref="F95:F96"/>
     <mergeCell ref="E92:E96"/>
@@ -7422,29 +8001,2384 @@
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="E84:E90"/>
     <mergeCell ref="C15:C35"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="C36:C76"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="D97:D106"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C7:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="18" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AB102"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+    </row>
+    <row r="2" spans="1:28" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="J3" s="56">
+        <f>ROUND((COUNTIF(I5:I31,"O")/COUNTA(I5:I31))*100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="M4" s="61"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="17"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="52" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+    </row>
+    <row r="20" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J22" s="27"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J24" s="27"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J27" s="27"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J28" s="27"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J29" s="27"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J30" s="27"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="52" t="s">
+        <v>342</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J31" s="27"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B32" s="53"/>
+      <c r="C32" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J32" s="27"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="53"/>
+      <c r="C33" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J33" s="27"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J34" s="27"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J36" s="27"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J38" s="27"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J40" s="27"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J41" s="27"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="H42" s="23"/>
+      <c r="I42" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J42" s="27"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="53"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="H45" s="23"/>
+      <c r="I45" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J45" s="27"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="53"/>
+      <c r="C46" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J46" s="27"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="H48" s="23"/>
+      <c r="I48" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="H49" s="23"/>
+      <c r="I49" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="53"/>
+      <c r="C50" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="H50" s="23"/>
+      <c r="I50" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="H51" s="23"/>
+      <c r="I51" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="H52" s="23"/>
+      <c r="I52" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="H53" s="23"/>
+      <c r="I53" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="53"/>
+      <c r="C54" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="H54" s="23"/>
+      <c r="I54" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J54" s="27"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="53"/>
+      <c r="C55" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="H55" s="23"/>
+      <c r="I55" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J55" s="27"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="H56" s="23"/>
+      <c r="I56" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J56" s="27"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="H57" s="23"/>
+      <c r="I57" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="H58" s="23"/>
+      <c r="I58" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="H59" s="23"/>
+      <c r="I59" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="H60" s="23"/>
+      <c r="I60" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="H61" s="23"/>
+      <c r="I61" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="H62" s="23"/>
+      <c r="I62" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="H63" s="23"/>
+      <c r="I63" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J63" s="27"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="H64" s="23"/>
+      <c r="I64" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="H65" s="23"/>
+      <c r="I65" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="H66" s="23"/>
+      <c r="I66" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="H67" s="23"/>
+      <c r="I67" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J67" s="27"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="H68" s="23"/>
+      <c r="I68" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J68" s="27"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="H69" s="23"/>
+      <c r="I69" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J69" s="27"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="H70" s="23"/>
+      <c r="I70" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J70" s="27"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="H71" s="23"/>
+      <c r="I71" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J71" s="27"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="H72" s="23"/>
+      <c r="I72" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="H73" s="23"/>
+      <c r="I73" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="H74" s="23"/>
+      <c r="I74" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J74" s="27"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="H75" s="23"/>
+      <c r="I75" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="H76" s="23"/>
+      <c r="I76" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="H77" s="23"/>
+      <c r="I77" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J77" s="27"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="H78" s="23"/>
+      <c r="I78" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="H79" s="23"/>
+      <c r="I79" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="H80" s="23"/>
+      <c r="I80" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="H81" s="23"/>
+      <c r="I81" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="H82" s="23"/>
+      <c r="I82" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="H83" s="23"/>
+      <c r="I83" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B84" s="53"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="H84" s="23"/>
+      <c r="I84" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J84" s="46"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B85" s="53"/>
+      <c r="C85" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="H85" s="23"/>
+      <c r="I85" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B86" s="53"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B87" s="53"/>
+      <c r="C87" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="H89" s="23"/>
+      <c r="I89" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="H90" s="23"/>
+      <c r="I90" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="H91" s="23"/>
+      <c r="I91" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="H92" s="23"/>
+      <c r="I92" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B93" s="53"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="H93" s="23"/>
+      <c r="I93" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J93" s="46"/>
+      <c r="K93" s="46"/>
+      <c r="L93" s="46"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="H94" s="23"/>
+      <c r="I94" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J94" s="46"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H95" s="23"/>
+      <c r="I95" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="H96" s="23"/>
+      <c r="I96" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B99" s="53"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B100" s="53"/>
+      <c r="C100" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D100" s="46"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C34:C45"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="C6:C19"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C99"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="B31:B51"/>
+    <mergeCell ref="B52:B102"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C55:C84"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="21" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
+++ b/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\homelearn-hybrid-list\doc\02_wbs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="7740" yWindow="735" windowWidth="11400" windowHeight="5775" activeTab="2"/>
   </bookViews>
@@ -21,7 +16,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">퍼블리싱!$A$1:$AC$158</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$H$43</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1397,7 +1392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,11 +1534,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1551,7 +1552,16 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1564,18 +1574,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1891,7 +1889,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2489,20 +2487,20 @@
     </row>
     <row r="2" spans="1:54" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="11"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -2659,26 +2657,26 @@
     </row>
     <row r="5" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="51"/>
+      <c r="M5" s="49"/>
       <c r="N5" s="11"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -2726,18 +2724,18 @@
         <v>21</v>
       </c>
       <c r="C6" s="48"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50" t="s">
+      <c r="E6" s="51"/>
+      <c r="F6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="48" t="s">
         <v>7</v>
       </c>
@@ -2787,14 +2785,14 @@
       <c r="A7" s="11"/>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
       <c r="N7" s="11"/>
@@ -2842,14 +2840,14 @@
       <c r="A8" s="11"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
       <c r="N8" s="11"/>
@@ -2897,14 +2895,14 @@
       <c r="A9" s="11"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
       <c r="N9" s="11"/>
@@ -3941,11 +3939,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -3962,6 +3955,11 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3978,8 +3976,8 @@
   </sheetPr>
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4025,14 +4023,14 @@
     </row>
     <row r="2" spans="1:29" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="O2" s="14"/>
@@ -4064,12 +4062,12 @@
       <c r="J3" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="58">
         <f>ROUND((COUNTIF(J5:J129,"O")/COUNTA(J5:J129))*100,1)</f>
-        <v>12</v>
-      </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
+        <v>13.6</v>
+      </c>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -4307,7 +4305,7 @@
       <c r="A9" s="15"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="53" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="26"/>
@@ -4348,7 +4346,7 @@
       <c r="A10" s="15"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
-      <c r="D10" s="58"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26" t="s">
@@ -4387,7 +4385,7 @@
       <c r="A11" s="15"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="58"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26" t="s">
@@ -4426,7 +4424,7 @@
       <c r="A12" s="15"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="59"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26" t="s">
@@ -4668,7 +4666,7 @@
       <c r="A18" s="15"/>
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="53" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="26"/>
@@ -4709,7 +4707,7 @@
       <c r="A19" s="15"/>
       <c r="B19" s="56"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="58"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26" t="s">
@@ -4721,8 +4719,8 @@
       <c r="I19" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="J19" s="26" t="s">
-        <v>23</v>
+      <c r="J19" s="47" t="s">
+        <v>190</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="26"/>
@@ -4748,7 +4746,7 @@
       <c r="A20" s="15"/>
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
-      <c r="D20" s="58"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26" t="s">
@@ -4787,7 +4785,7 @@
       <c r="A21" s="15"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="59"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26" t="s">
@@ -4799,8 +4797,8 @@
       <c r="I21" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>23</v>
+      <c r="J21" s="47" t="s">
+        <v>190</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="26"/>
@@ -4826,7 +4824,7 @@
       <c r="A22" s="15"/>
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="53" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="26"/>
@@ -4867,7 +4865,7 @@
       <c r="A23" s="15"/>
       <c r="B23" s="56"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="58"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="26" t="s">
@@ -4906,8 +4904,8 @@
       <c r="A24" s="15"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="57" t="s">
+      <c r="D24" s="54"/>
+      <c r="E24" s="53" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="26"/>
@@ -4947,8 +4945,8 @@
       <c r="A25" s="15"/>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26" t="s">
         <v>82</v>
@@ -4986,8 +4984,8 @@
       <c r="A26" s="15"/>
       <c r="B26" s="56"/>
       <c r="C26" s="56"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26" t="s">
         <v>43</v>
@@ -5025,8 +5023,8 @@
       <c r="A27" s="15"/>
       <c r="B27" s="56"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26" t="s">
         <v>42</v>
@@ -5064,8 +5062,8 @@
       <c r="A28" s="15"/>
       <c r="B28" s="56"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26" t="s">
         <v>45</v>
@@ -5103,7 +5101,7 @@
       <c r="A29" s="15"/>
       <c r="B29" s="56"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="58"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="26" t="s">
         <v>46</v>
       </c>
@@ -5333,7 +5331,7 @@
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="56"/>
       <c r="C38" s="56"/>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="53" t="s">
         <v>66</v>
       </c>
       <c r="E38" s="26"/>
@@ -5357,7 +5355,7 @@
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="56"/>
       <c r="C39" s="56"/>
-      <c r="D39" s="58"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38" t="s">
@@ -5379,7 +5377,7 @@
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
-      <c r="D40" s="59"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26" t="s">
@@ -5425,7 +5423,7 @@
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="56"/>
       <c r="C42" s="56"/>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="53" t="s">
         <v>70</v>
       </c>
       <c r="E42" s="26"/>
@@ -5449,7 +5447,7 @@
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="56"/>
       <c r="C43" s="56"/>
-      <c r="D43" s="58"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26" t="s">
@@ -5471,7 +5469,7 @@
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="56"/>
       <c r="C44" s="56"/>
-      <c r="D44" s="58"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26" t="s">
@@ -5493,7 +5491,7 @@
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="56"/>
       <c r="C45" s="56"/>
-      <c r="D45" s="58"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
       <c r="G45" s="26" t="s">
@@ -5515,7 +5513,7 @@
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="56"/>
       <c r="C46" s="56"/>
-      <c r="D46" s="59"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="38" t="s">
@@ -5537,7 +5535,7 @@
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="56"/>
       <c r="C47" s="56"/>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="53" t="s">
         <v>74</v>
       </c>
       <c r="E47" s="28"/>
@@ -5561,7 +5559,7 @@
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="56"/>
       <c r="C48" s="56"/>
-      <c r="D48" s="58"/>
+      <c r="D48" s="54"/>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
       <c r="G48" s="26" t="s">
@@ -5583,7 +5581,7 @@
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="56"/>
       <c r="C49" s="56"/>
-      <c r="D49" s="59"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="26" t="s">
@@ -5605,7 +5603,7 @@
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="56"/>
       <c r="C50" s="56"/>
-      <c r="D50" s="57" t="s">
+      <c r="D50" s="53" t="s">
         <v>85</v>
       </c>
       <c r="E50" s="28"/>
@@ -5629,7 +5627,7 @@
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="56"/>
       <c r="C51" s="56"/>
-      <c r="D51" s="58"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
       <c r="G51" s="26" t="s">
@@ -5651,7 +5649,7 @@
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="56"/>
       <c r="C52" s="56"/>
-      <c r="D52" s="58"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="26" t="s">
@@ -5673,7 +5671,7 @@
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="56"/>
       <c r="C53" s="56"/>
-      <c r="D53" s="58"/>
+      <c r="D53" s="54"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="26" t="s">
@@ -5695,7 +5693,7 @@
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="56"/>
       <c r="C54" s="56"/>
-      <c r="D54" s="58"/>
+      <c r="D54" s="54"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
       <c r="G54" s="26" t="s">
@@ -5717,7 +5715,7 @@
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
-      <c r="D55" s="58"/>
+      <c r="D55" s="54"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
       <c r="G55" s="26" t="s">
@@ -5739,7 +5737,7 @@
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
-      <c r="D56" s="59"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
       <c r="G56" s="26" t="s">
@@ -5851,7 +5849,7 @@
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
-      <c r="D61" s="57" t="s">
+      <c r="D61" s="53" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="26"/>
@@ -5875,7 +5873,7 @@
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
-      <c r="D62" s="58"/>
+      <c r="D62" s="54"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
       <c r="G62" s="26" t="s">
@@ -5897,7 +5895,7 @@
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
-      <c r="D63" s="57" t="s">
+      <c r="D63" s="53" t="s">
         <v>98</v>
       </c>
       <c r="E63" s="28"/>
@@ -5921,7 +5919,7 @@
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
-      <c r="D64" s="58"/>
+      <c r="D64" s="54"/>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
       <c r="G64" s="26" t="s">
@@ -5943,7 +5941,7 @@
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
-      <c r="D65" s="58"/>
+      <c r="D65" s="54"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26" t="s">
@@ -5965,7 +5963,7 @@
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
-      <c r="D66" s="58"/>
+      <c r="D66" s="54"/>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
       <c r="G66" s="31" t="s">
@@ -5987,7 +5985,7 @@
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
-      <c r="D67" s="58"/>
+      <c r="D67" s="54"/>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
       <c r="G67" s="31" t="s">
@@ -6009,7 +6007,7 @@
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
-      <c r="D68" s="59"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
       <c r="G68" s="31" t="s">
@@ -6031,7 +6029,7 @@
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
-      <c r="D69" s="57" t="s">
+      <c r="D69" s="53" t="s">
         <v>105</v>
       </c>
       <c r="E69" s="28"/>
@@ -6055,7 +6053,7 @@
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
-      <c r="D70" s="58"/>
+      <c r="D70" s="54"/>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
       <c r="G70" s="31" t="s">
@@ -6077,7 +6075,7 @@
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
-      <c r="D71" s="59"/>
+      <c r="D71" s="55"/>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
       <c r="G71" s="31" t="s">
@@ -6099,7 +6097,7 @@
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
-      <c r="D72" s="57" t="s">
+      <c r="D72" s="53" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="28"/>
@@ -6123,7 +6121,7 @@
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
-      <c r="D73" s="58"/>
+      <c r="D73" s="54"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
       <c r="G73" s="31" t="s">
@@ -6145,7 +6143,7 @@
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
-      <c r="D74" s="58"/>
+      <c r="D74" s="54"/>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
       <c r="G74" s="31" t="s">
@@ -6167,7 +6165,7 @@
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
-      <c r="D75" s="59"/>
+      <c r="D75" s="55"/>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="31" t="s">
@@ -6281,7 +6279,7 @@
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
-      <c r="D80" s="57" t="s">
+      <c r="D80" s="53" t="s">
         <v>120</v>
       </c>
       <c r="E80" s="42"/>
@@ -6305,7 +6303,7 @@
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
-      <c r="D81" s="58"/>
+      <c r="D81" s="54"/>
       <c r="E81" s="42"/>
       <c r="F81" s="26"/>
       <c r="G81" s="20" t="s">
@@ -6327,7 +6325,7 @@
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
-      <c r="D82" s="58"/>
+      <c r="D82" s="54"/>
       <c r="E82" s="42"/>
       <c r="F82" s="26"/>
       <c r="G82" s="32" t="s">
@@ -6378,7 +6376,7 @@
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
       <c r="D84" s="56"/>
-      <c r="E84" s="57" t="s">
+      <c r="E84" s="53" t="s">
         <v>123</v>
       </c>
       <c r="F84" s="28"/>
@@ -6402,7 +6400,7 @@
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
       <c r="D85" s="56"/>
-      <c r="E85" s="58"/>
+      <c r="E85" s="54"/>
       <c r="F85" s="28"/>
       <c r="G85" s="31" t="s">
         <v>126</v>
@@ -6424,7 +6422,7 @@
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
       <c r="D86" s="56"/>
-      <c r="E86" s="58"/>
+      <c r="E86" s="54"/>
       <c r="F86" s="28"/>
       <c r="G86" s="31" t="s">
         <v>127</v>
@@ -6446,7 +6444,7 @@
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
       <c r="D87" s="56"/>
-      <c r="E87" s="58"/>
+      <c r="E87" s="54"/>
       <c r="F87" s="28"/>
       <c r="G87" s="31" t="s">
         <v>128</v>
@@ -6468,7 +6466,7 @@
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
       <c r="D88" s="56"/>
-      <c r="E88" s="58"/>
+      <c r="E88" s="54"/>
       <c r="F88" s="28"/>
       <c r="G88" s="31" t="s">
         <v>129</v>
@@ -6490,7 +6488,7 @@
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
       <c r="D89" s="56"/>
-      <c r="E89" s="58"/>
+      <c r="E89" s="54"/>
       <c r="F89" s="28"/>
       <c r="G89" s="31" t="s">
         <v>130</v>
@@ -6512,7 +6510,7 @@
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
       <c r="D90" s="56"/>
-      <c r="E90" s="59"/>
+      <c r="E90" s="55"/>
       <c r="F90" s="28"/>
       <c r="G90" s="31" t="s">
         <v>131</v>
@@ -6558,10 +6556,10 @@
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
       <c r="D92" s="56"/>
-      <c r="E92" s="57" t="s">
+      <c r="E92" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="F92" s="57" t="s">
+      <c r="F92" s="53" t="s">
         <v>133</v>
       </c>
       <c r="G92" s="25" t="s">
@@ -6584,8 +6582,8 @@
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
       <c r="D93" s="56"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
       <c r="G93" s="25" t="s">
         <v>135</v>
       </c>
@@ -6606,8 +6604,8 @@
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
       <c r="D94" s="56"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="59"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="55"/>
       <c r="G94" s="25" t="s">
         <v>136</v>
       </c>
@@ -6628,8 +6626,8 @@
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
       <c r="D95" s="56"/>
-      <c r="E95" s="58"/>
-      <c r="F95" s="57" t="s">
+      <c r="E95" s="54"/>
+      <c r="F95" s="53" t="s">
         <v>31</v>
       </c>
       <c r="G95" s="25" t="s">
@@ -6652,8 +6650,8 @@
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
       <c r="D96" s="56"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
       <c r="G96" s="25" t="s">
         <v>138</v>
       </c>
@@ -6673,7 +6671,7 @@
     <row r="97" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
-      <c r="D97" s="57" t="s">
+      <c r="D97" s="53" t="s">
         <v>139</v>
       </c>
       <c r="E97" s="22"/>
@@ -6697,8 +6695,8 @@
     <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
-      <c r="D98" s="58"/>
-      <c r="E98" s="57" t="s">
+      <c r="D98" s="54"/>
+      <c r="E98" s="53" t="s">
         <v>133</v>
       </c>
       <c r="F98" s="22"/>
@@ -6721,8 +6719,8 @@
     <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
       <c r="F99" s="22"/>
       <c r="G99" s="25" t="s">
         <v>144</v>
@@ -6743,8 +6741,8 @@
     <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
       <c r="F100" s="22"/>
       <c r="G100" s="25" t="s">
         <v>143</v>
@@ -6765,8 +6763,8 @@
     <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
-      <c r="D101" s="58"/>
-      <c r="E101" s="59"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="55"/>
       <c r="F101" s="22"/>
       <c r="G101" s="25" t="s">
         <v>142</v>
@@ -6787,8 +6785,8 @@
     <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
-      <c r="D102" s="58"/>
-      <c r="E102" s="57" t="s">
+      <c r="D102" s="54"/>
+      <c r="E102" s="53" t="s">
         <v>31</v>
       </c>
       <c r="F102" s="22"/>
@@ -6811,8 +6809,8 @@
     <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
       <c r="F103" s="22"/>
       <c r="G103" s="25" t="s">
         <v>146</v>
@@ -6833,8 +6831,8 @@
     <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
       <c r="F104" s="22"/>
       <c r="G104" s="25" t="s">
         <v>147</v>
@@ -6855,8 +6853,8 @@
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
       <c r="F105" s="22"/>
       <c r="G105" s="25" t="s">
         <v>148</v>
@@ -6877,8 +6875,8 @@
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
-      <c r="D106" s="58"/>
-      <c r="E106" s="59"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="55"/>
       <c r="F106" s="22"/>
       <c r="G106" s="25" t="s">
         <v>149</v>
@@ -6923,10 +6921,10 @@
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
-      <c r="D108" s="57" t="s">
+      <c r="D108" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="E108" s="57" t="s">
+      <c r="E108" s="53" t="s">
         <v>133</v>
       </c>
       <c r="F108" s="22"/>
@@ -6949,8 +6947,8 @@
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
       <c r="F109" s="22"/>
       <c r="G109" s="25" t="s">
         <v>154</v>
@@ -6971,8 +6969,8 @@
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
-      <c r="D110" s="58"/>
-      <c r="E110" s="58"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="54"/>
       <c r="F110" s="22"/>
       <c r="G110" s="25" t="s">
         <v>155</v>
@@ -6993,8 +6991,8 @@
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="59"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="55"/>
       <c r="F111" s="22"/>
       <c r="G111" s="25" t="s">
         <v>156</v>
@@ -7015,7 +7013,7 @@
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
-      <c r="D112" s="58"/>
+      <c r="D112" s="54"/>
       <c r="E112" s="56" t="s">
         <v>31</v>
       </c>
@@ -7039,7 +7037,7 @@
     <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
-      <c r="D113" s="58"/>
+      <c r="D113" s="54"/>
       <c r="E113" s="56"/>
       <c r="F113" s="22"/>
       <c r="G113" s="25" t="s">
@@ -7061,7 +7059,7 @@
     <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
-      <c r="D114" s="58"/>
+      <c r="D114" s="54"/>
       <c r="E114" s="56"/>
       <c r="F114" s="22"/>
       <c r="G114" s="25" t="s">
@@ -7083,7 +7081,7 @@
     <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
-      <c r="D115" s="58"/>
+      <c r="D115" s="54"/>
       <c r="E115" s="56"/>
       <c r="F115" s="22"/>
       <c r="G115" s="25" t="s">
@@ -7105,7 +7103,7 @@
     <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
-      <c r="D116" s="58"/>
+      <c r="D116" s="54"/>
       <c r="E116" s="56"/>
       <c r="F116" s="22"/>
       <c r="G116" s="25" t="s">
@@ -7127,7 +7125,7 @@
     <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
-      <c r="D117" s="58"/>
+      <c r="D117" s="54"/>
       <c r="E117" s="56"/>
       <c r="F117" s="22"/>
       <c r="G117" s="25" t="s">
@@ -7149,7 +7147,7 @@
     <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
-      <c r="D118" s="59"/>
+      <c r="D118" s="55"/>
       <c r="E118" s="56"/>
       <c r="F118" s="22"/>
       <c r="G118" s="25" t="s">
@@ -7171,7 +7169,7 @@
     <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
-      <c r="D119" s="57" t="s">
+      <c r="D119" s="53" t="s">
         <v>163</v>
       </c>
       <c r="E119" s="56" t="s">
@@ -7197,7 +7195,7 @@
     <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
-      <c r="D120" s="58"/>
+      <c r="D120" s="54"/>
       <c r="E120" s="56"/>
       <c r="F120" s="22"/>
       <c r="G120" s="25" t="s">
@@ -7219,7 +7217,7 @@
     <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
-      <c r="D121" s="58"/>
+      <c r="D121" s="54"/>
       <c r="E121" s="56"/>
       <c r="F121" s="22"/>
       <c r="G121" s="25" t="s">
@@ -7241,8 +7239,8 @@
     <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="57" t="s">
+      <c r="D122" s="54"/>
+      <c r="E122" s="53" t="s">
         <v>31</v>
       </c>
       <c r="F122" s="22"/>
@@ -7265,8 +7263,8 @@
     <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="58"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="54"/>
       <c r="F123" s="22"/>
       <c r="G123" s="25" t="s">
         <v>168</v>
@@ -7287,8 +7285,8 @@
     <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
-      <c r="D124" s="58"/>
-      <c r="E124" s="58"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="54"/>
       <c r="F124" s="22"/>
       <c r="G124" s="25" t="s">
         <v>169</v>
@@ -7309,8 +7307,8 @@
     <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
-      <c r="D125" s="58"/>
-      <c r="E125" s="58"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="54"/>
       <c r="F125" s="22"/>
       <c r="G125" s="25" t="s">
         <v>170</v>
@@ -7331,8 +7329,8 @@
     <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
-      <c r="D126" s="58"/>
-      <c r="E126" s="58"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="54"/>
       <c r="F126" s="22"/>
       <c r="G126" s="25" t="s">
         <v>171</v>
@@ -7353,8 +7351,8 @@
     <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="54"/>
       <c r="F127" s="22"/>
       <c r="G127" s="25" t="s">
         <v>172</v>
@@ -7375,8 +7373,8 @@
     <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
-      <c r="D128" s="58"/>
-      <c r="E128" s="58"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="54"/>
       <c r="F128" s="22"/>
       <c r="G128" s="25" t="s">
         <v>173</v>
@@ -7397,8 +7395,8 @@
     <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
-      <c r="D129" s="59"/>
-      <c r="E129" s="59"/>
+      <c r="D129" s="55"/>
+      <c r="E129" s="55"/>
       <c r="F129" s="22"/>
       <c r="G129" s="25" t="s">
         <v>174</v>
@@ -7418,6 +7416,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="C36:C76"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="D42:D46"/>
     <mergeCell ref="F92:F94"/>
     <mergeCell ref="F95:F96"/>
     <mergeCell ref="E92:E96"/>
@@ -7434,29 +7452,9 @@
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="E84:E90"/>
     <mergeCell ref="C15:C35"/>
-    <mergeCell ref="C36:C76"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="D97:D106"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C7:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="17" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="18" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
+++ b/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\homelearn-hybrid-list\doc\02_wbs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="7740" yWindow="735" windowWidth="11400" windowHeight="5775" activeTab="2"/>
   </bookViews>
@@ -16,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">퍼블리싱!$A$1:$AC$158</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$H$43</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="269">
   <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영어완성_영단어 암기_1단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영역별 학습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -761,18 +762,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영어완성_영단어 암기_마이페이지_학습 일자 별로 보기_전체학습일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영어완성_영단어암기_학습안내</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영어완성_영단어암기_1단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -837,235 +830,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>특별학습_홈런픽_학습안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_학습소개_읽기마당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_학습안내_한국사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_교안안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_실험의 달인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교공부_학교공부예복습_복습 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_홈런AI교과서_책보기 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_홈런AI교과서_강의 선생님 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_홈런AI교과서_학습안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_학습소개_똑똑열려라코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_02_파닉스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_03_영단어암기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_04_영역별학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_08_영어송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_08_영역별학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_09_인기dvd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;09_GNB_05_특별학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_홈런픽_빈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;13_홈런픽_01메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;3D콘텐츠탑재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;역사의달인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;안드로이드_오늘의한자 포함 최종_20160127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;14_홈런공부송_01_메인4_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;14_애니특별관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;열려라코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;읽기마당-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;읽기마당-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별학습_내가 쓴 소감 모음_빈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;읽기마당-메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_02&gt;05_특별학습&gt;한국사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_01_예복습_소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_01_예복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_01_핵심전과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_02_체험학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교공부_숙제해결_숙제자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_03_숙제자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_04_테마숙제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교공부_숙제해결_테마숙제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_05_교과서사전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교공부_교과서사전_국어활동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교공부_교과서사전_국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교공부_교과서사전_통합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_학습안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_마스연산_교과연계연산력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_마스연산_계산속도향상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_마스연산_계산속도향상_팁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_마스연산_암산력향상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOMELEARN HYBRID LIST(초등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOMELERN HYBRID LIST(초등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_영역별수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학완성_수학경시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_알파벳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_파닉스_알파벳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>영어완성_파닉스_학습안내</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영어완성_영단어 암기_마이페이지_학습일 캘린더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_홈런픽_학습안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_학습소개_읽기마당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_학습안내_한국사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_교안안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_실험의 달인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교공부_학교공부예복습_복습 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_홈런AI교과서_책보기 안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_홈런AI교과서_강의 선생님 안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_홈런AI교과서_학습안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_학습소개_똑똑열려라코딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_02_파닉스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_03_영단어암기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_04_영역별학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_08_영어송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_08_영역별학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;04_영어완성&gt;09_GNB_04_영어완성_09_인기dvd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;09_GNB_05_특별학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_홈런픽_빈화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;13_홈런픽_01메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;3D콘텐츠탑재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;역사의달인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;안드로이드_오늘의한자 포함 최종_20160127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;14_홈런공부송_01_메인4_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;14_애니특별관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;열려라코딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;읽기마당-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;읽기마당-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별학습_내가 쓴 소감 모음_빈화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;읽기마당-메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_02&gt;05_특별학습&gt;한국사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_01_예복습_소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_01_예복습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_01_핵심전과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_02_체험학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교공부_숙제해결_숙제자료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_03_숙제자료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_04_숙제해결_04_테마숙제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교공부_숙제해결_테마숙제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코앱_초등_01&gt;02_학교공부&gt;09_GNB_02_학교공부_05_교과서사전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교공부_교과서사전_국어활동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교공부_교과서사전_국어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교공부_교과서사전_통합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_학습안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_마스연산_교과연계연산력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_마스연산_계산속도향상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_마스연산_계산속도향상_팁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_마스연산_암산력향상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOMELEARN HYBRID LIST(초등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOMELERN HYBRID LIST(초등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_영역별수학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학완성_수학경시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어완성_알파벳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어완성_파닉스_알파벳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어완성_파닉스_알파벳</t>
+    <t>영어완성_파닉스_읽기표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영단어암기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영단어 암기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영어교과강의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영단어암기_마이페이지_학습일자별로보기_레벨 테스트결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영단어암기_마이페이지_알파벳_순으로_보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영단어암기_마이페이지_틀린_단어만_보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영단어암기_레벨_테스트_하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영단어암기_마이페이지_학습일 캘린더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영단어암기_마이페이지_학습 일자 별로 보기_전체학습일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영역별학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영어신문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_영어동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어완성_인기DVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1392,7 +1437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1521,6 +1566,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1889,7 +1940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1914,7 +1965,7 @@
     <row r="12" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:3" ht="41.25" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2487,20 +2538,20 @@
     </row>
     <row r="2" spans="1:54" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="11"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -2657,26 +2708,26 @@
     </row>
     <row r="5" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="49"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="11"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -2720,26 +2771,26 @@
     </row>
     <row r="6" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="48" t="s">
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="50"/>
       <c r="N6" s="11"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -2783,18 +2834,18 @@
     </row>
     <row r="7" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
       <c r="N7" s="11"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -2838,18 +2889,18 @@
     </row>
     <row r="8" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
       <c r="N8" s="11"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -2893,18 +2944,18 @@
     </row>
     <row r="9" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
       <c r="N9" s="11"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -3976,8 +4027,8 @@
   </sheetPr>
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3991,7 +4042,8 @@
     <col min="8" max="8" width="56.625" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="62.75" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="21" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -4023,14 +4075,14 @@
     </row>
     <row r="2" spans="1:29" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
-      <c r="B2" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="O2" s="14"/>
@@ -4060,14 +4112,14 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="K3" s="58">
-        <f>ROUND((COUNTIF(J5:J129,"O")/COUNTA(J5:J129))*100,1)</f>
-        <v>13.6</v>
-      </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
+        <v>251</v>
+      </c>
+      <c r="K3" s="60">
+        <f>ROUND((COUNTIF(J5:J129,"O")/(COUNTIF(J5:J129,"O")+COUNTIF(J5:J129,"X")))*100,1)</f>
+        <v>21.8</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -4099,7 +4151,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>10</v>
@@ -4108,7 +4160,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>12</v>
@@ -4141,26 +4193,26 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>186</v>
+      <c r="C5" s="58" t="s">
+        <v>183</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
@@ -4184,22 +4236,22 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
@@ -4223,24 +4275,24 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
@@ -4264,8 +4316,8 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
@@ -4273,13 +4325,13 @@
         <v>28</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
@@ -4303,24 +4355,24 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="53" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="55" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
@@ -4344,22 +4396,22 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="54"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
@@ -4383,22 +4435,22 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="54"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
@@ -4422,22 +4474,22 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
@@ -4461,24 +4513,24 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="26" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -4502,24 +4554,24 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="26" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J14" s="44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
@@ -4543,8 +4595,8 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="26"/>
@@ -4557,10 +4609,10 @@
         <v>34</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
@@ -4584,22 +4636,22 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
@@ -4623,8 +4675,8 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="26" t="s">
         <v>38</v>
       </c>
@@ -4634,13 +4686,13 @@
         <v>35</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
@@ -4664,24 +4716,24 @@
     </row>
     <row r="18" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="53" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="55" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
@@ -4705,22 +4757,22 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="54"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="26"/>
@@ -4744,22 +4796,22 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="54"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="26"/>
@@ -4783,22 +4835,22 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="55"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J21" s="47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="26"/>
@@ -4822,9 +4874,9 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="53" t="s">
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="55" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="26"/>
@@ -4833,13 +4885,13 @@
         <v>48</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>23</v>
+        <v>209</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>187</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="26"/>
@@ -4863,22 +4915,22 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="54"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="26" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>23</v>
+        <v>209</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>187</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="26"/>
@@ -4902,10 +4954,10 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="53" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="55" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="26"/>
@@ -4913,17 +4965,19 @@
         <v>44</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="26"/>
-      <c r="M24" s="46"/>
+      <c r="M24" s="46" t="s">
+        <v>268</v>
+      </c>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="14"/>
@@ -4943,26 +4997,28 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>192</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="26"/>
-      <c r="M25" s="46"/>
+      <c r="M25" s="48" t="s">
+        <v>268</v>
+      </c>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="14"/>
@@ -4982,26 +5038,28 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26" t="s">
         <v>43</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>192</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="26"/>
-      <c r="M26" s="46"/>
+      <c r="M26" s="48" t="s">
+        <v>268</v>
+      </c>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="14"/>
@@ -5021,26 +5079,28 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>192</v>
       </c>
       <c r="K27" s="27"/>
       <c r="L27" s="26"/>
-      <c r="M27" s="46"/>
+      <c r="M27" s="48" t="s">
+        <v>268</v>
+      </c>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="14"/>
@@ -5060,26 +5120,28 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26" t="s">
         <v>45</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>192</v>
       </c>
       <c r="K28" s="27"/>
       <c r="L28" s="26"/>
-      <c r="M28" s="46"/>
+      <c r="M28" s="48" t="s">
+        <v>268</v>
+      </c>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="14"/>
@@ -5099,9 +5161,9 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="54"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="26" t="s">
         <v>46</v>
       </c>
@@ -5110,17 +5172,19 @@
         <v>47</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>47</v>
+        <v>261</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="J29" s="48" t="s">
+        <v>192</v>
       </c>
       <c r="K29" s="27"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="46"/>
+      <c r="M29" s="48" t="s">
+        <v>268</v>
+      </c>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="14"/>
@@ -5139,187 +5203,187 @@
       <c r="AC29" s="17"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="G30" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="J30" s="26" t="s">
-        <v>23</v>
+        <v>210</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>187</v>
       </c>
       <c r="K30" s="27"/>
       <c r="L30" s="26"/>
       <c r="M30" s="46"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="I31" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="J31" s="26" t="s">
-        <v>23</v>
+        <v>210</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>187</v>
       </c>
       <c r="K31" s="27"/>
       <c r="L31" s="26"/>
       <c r="M31" s="46"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>54</v>
+        <v>265</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>23</v>
+        <v>211</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>187</v>
       </c>
       <c r="K32" s="27"/>
       <c r="L32" s="26"/>
       <c r="M32" s="46"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>57</v>
+        <v>266</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="J33" s="26" t="s">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>187</v>
       </c>
       <c r="K33" s="26"/>
       <c r="L33" s="26"/>
       <c r="M33" s="46"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="J34" s="26" t="s">
-        <v>23</v>
+        <v>212</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>187</v>
       </c>
       <c r="K34" s="27"/>
       <c r="L34" s="26"/>
       <c r="M34" s="46"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>61</v>
+        <v>267</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="J35" s="26" t="s">
-        <v>23</v>
+        <v>213</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>187</v>
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
       <c r="M35" s="46"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="56"/>
-      <c r="C36" s="56" t="s">
-        <v>63</v>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58" t="s">
+        <v>62</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="J36" s="26" t="s">
-        <v>23</v>
+        <v>214</v>
+      </c>
+      <c r="J36" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="K36" s="27"/>
       <c r="L36" s="26"/>
       <c r="M36" s="46"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
       <c r="G37" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J37" s="26" t="s">
         <v>23</v>
@@ -5329,21 +5393,21 @@
       <c r="M37" s="46"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="53" t="s">
-        <v>66</v>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="55" t="s">
+        <v>65</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="G38" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J38" s="26" t="s">
         <v>23</v>
@@ -5353,19 +5417,19 @@
       <c r="M38" s="46"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="54"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J39" s="38" t="s">
         <v>23</v>
@@ -5375,19 +5439,19 @@
       <c r="M39" s="46"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="55"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J40" s="26" t="s">
         <v>23</v>
@@ -5397,21 +5461,21 @@
       <c r="M40" s="46"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J41" s="26" t="s">
         <v>23</v>
@@ -5421,21 +5485,21 @@
       <c r="M41" s="46"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="53" t="s">
-        <v>70</v>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J42" s="26" t="s">
         <v>23</v>
@@ -5445,19 +5509,19 @@
       <c r="M42" s="46"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="54"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J43" s="26" t="s">
         <v>23</v>
@@ -5467,19 +5531,19 @@
       <c r="M43" s="46"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="54"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J44" s="26" t="s">
         <v>23</v>
@@ -5489,19 +5553,19 @@
       <c r="M44" s="46"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="54"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="56"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
       <c r="G45" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I45" s="40" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J45" s="26" t="s">
         <v>23</v>
@@ -5511,19 +5575,19 @@
       <c r="M45" s="46"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="55"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="38" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I46" s="40" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J46" s="38" t="s">
         <v>23</v>
@@ -5533,21 +5597,21 @@
       <c r="M46" s="46"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="53" t="s">
-        <v>74</v>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
       <c r="G47" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I47" s="40" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J47" s="26" t="s">
         <v>23</v>
@@ -5557,19 +5621,19 @@
       <c r="M47" s="46"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="54"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
       <c r="G48" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I48" s="40" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J48" s="26" t="s">
         <v>23</v>
@@ -5579,19 +5643,19 @@
       <c r="M48" s="46"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="55"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I49" s="40" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J49" s="26" t="s">
         <v>23</v>
@@ -5601,21 +5665,21 @@
       <c r="M49" s="46"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="53" t="s">
-        <v>85</v>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
       <c r="G50" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I50" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J50" s="26" t="s">
         <v>23</v>
@@ -5625,19 +5689,19 @@
       <c r="M50" s="46"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="54"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="56"/>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
       <c r="G51" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I51" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J51" s="26" t="s">
         <v>23</v>
@@ -5647,19 +5711,19 @@
       <c r="M51" s="46"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="54"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J52" s="26" t="s">
         <v>23</v>
@@ -5669,19 +5733,19 @@
       <c r="M52" s="46"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="54"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I53" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J53" s="26" t="s">
         <v>23</v>
@@ -5691,19 +5755,19 @@
       <c r="M53" s="46"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="54"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="56"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
       <c r="G54" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I54" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J54" s="26" t="s">
         <v>23</v>
@@ -5713,19 +5777,19 @@
       <c r="M54" s="46"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="54"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
       <c r="G55" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I55" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J55" s="26" t="s">
         <v>23</v>
@@ -5735,19 +5799,19 @@
       <c r="M55" s="46"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="55"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
       <c r="G56" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I56" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J56" s="26" t="s">
         <v>23</v>
@@ -5757,21 +5821,21 @@
       <c r="M56" s="46"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56" t="s">
-        <v>90</v>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58" t="s">
+        <v>89</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
       <c r="G57" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I57" s="40" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J57" s="26" t="s">
         <v>23</v>
@@ -5781,19 +5845,19 @@
       <c r="M57" s="46"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
       <c r="G58" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="40" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J58" s="26" t="s">
         <v>23</v>
@@ -5803,19 +5867,19 @@
       <c r="M58" s="46"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
       <c r="G59" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I59" s="40" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J59" s="26" t="s">
         <v>23</v>
@@ -5825,19 +5889,19 @@
       <c r="M59" s="46"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
       <c r="G60" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I60" s="40" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J60" s="26" t="s">
         <v>23</v>
@@ -5847,21 +5911,21 @@
       <c r="M60" s="46"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="53" t="s">
-        <v>95</v>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="55" t="s">
+        <v>94</v>
       </c>
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I61" s="40" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J61" s="26" t="s">
         <v>23</v>
@@ -5871,19 +5935,19 @@
       <c r="M61" s="46"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="54"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
       <c r="G62" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I62" s="40" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J62" s="26" t="s">
         <v>23</v>
@@ -5893,21 +5957,21 @@
       <c r="M62" s="46"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="53" t="s">
-        <v>98</v>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
       <c r="G63" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I63" s="40" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J63" s="26" t="s">
         <v>23</v>
@@ -5917,19 +5981,19 @@
       <c r="M63" s="46"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="54"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
       <c r="G64" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I64" s="40" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J64" s="26" t="s">
         <v>23</v>
@@ -5939,19 +6003,19 @@
       <c r="M64" s="46"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="54"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="56"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I65" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J65" s="26" t="s">
         <v>23</v>
@@ -5961,19 +6025,19 @@
       <c r="M65" s="46"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="54"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="56"/>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
       <c r="G66" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I66" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J66" s="26" t="s">
         <v>23</v>
@@ -5983,19 +6047,19 @@
       <c r="M66" s="46"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="54"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="56"/>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
       <c r="G67" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I67" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J67" s="26" t="s">
         <v>23</v>
@@ -6005,19 +6069,19 @@
       <c r="M67" s="46"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="55"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
       <c r="G68" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I68" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J68" s="26" t="s">
         <v>23</v>
@@ -6027,21 +6091,21 @@
       <c r="M68" s="46"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="53" t="s">
-        <v>105</v>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="55" t="s">
+        <v>104</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
       <c r="G69" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I69" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J69" s="26" t="s">
         <v>23</v>
@@ -6051,19 +6115,19 @@
       <c r="M69" s="46"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="54"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="56"/>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
       <c r="G70" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I70" s="40" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J70" s="26" t="s">
         <v>23</v>
@@ -6073,19 +6137,19 @@
       <c r="M70" s="46"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="55"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="57"/>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
       <c r="G71" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I71" s="40" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J71" s="26" t="s">
         <v>23</v>
@@ -6095,21 +6159,21 @@
       <c r="M71" s="46"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="53" t="s">
-        <v>109</v>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="55" t="s">
+        <v>108</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
       <c r="G72" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I72" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J72" s="26" t="s">
         <v>23</v>
@@ -6119,19 +6183,19 @@
       <c r="M72" s="46"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="54"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="56"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
       <c r="G73" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I73" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J73" s="26" t="s">
         <v>23</v>
@@ -6141,19 +6205,19 @@
       <c r="M73" s="46"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="54"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="56"/>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
       <c r="G74" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J74" s="26" t="s">
         <v>23</v>
@@ -6163,19 +6227,19 @@
       <c r="M74" s="46"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="55"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J75" s="26" t="s">
         <v>23</v>
@@ -6185,21 +6249,21 @@
       <c r="M75" s="46"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
       <c r="D76" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
       <c r="G76" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H76" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J76" s="26" t="s">
         <v>23</v>
@@ -6209,21 +6273,21 @@
       <c r="M76" s="46"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="56"/>
-      <c r="C77" s="56" t="s">
-        <v>116</v>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58" t="s">
+        <v>115</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
       <c r="G77" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H77" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J77" s="26" t="s">
         <v>23</v>
@@ -6233,19 +6297,19 @@
       <c r="M77" s="46"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
       <c r="G78" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H78" s="33" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J78" s="26" t="s">
         <v>23</v>
@@ -6255,19 +6319,19 @@
       <c r="M78" s="46"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
       <c r="G79" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H79" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J79" s="26" t="s">
         <v>23</v>
@@ -6277,21 +6341,21 @@
       <c r="M79" s="46"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="56"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="53" t="s">
-        <v>120</v>
+      <c r="B80" s="58"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="55" t="s">
+        <v>119</v>
       </c>
       <c r="E80" s="42"/>
       <c r="F80" s="26"/>
       <c r="G80" s="32" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I80" s="41" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J80" s="26" t="s">
         <v>23</v>
@@ -6301,19 +6365,19 @@
       <c r="M80" s="46"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B81" s="56"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="54"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="56"/>
       <c r="E81" s="42"/>
       <c r="F81" s="26"/>
       <c r="G81" s="20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J81" s="26" t="s">
         <v>23</v>
@@ -6323,19 +6387,19 @@
       <c r="M81" s="46"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="54"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="56"/>
       <c r="E82" s="42"/>
       <c r="F82" s="26"/>
       <c r="G82" s="32" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J82" s="26" t="s">
         <v>23</v>
@@ -6345,25 +6409,25 @@
       <c r="M82" s="46"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56" t="s">
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" s="37" t="s">
         <v>121</v>
-      </c>
-      <c r="E83" s="37" t="s">
-        <v>122</v>
       </c>
       <c r="F83" s="37" t="s">
         <v>31</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H83" s="33" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I83" s="41" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J83" s="26" t="s">
         <v>23</v>
@@ -6373,21 +6437,21 @@
       <c r="M83" s="46"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="53" t="s">
-        <v>123</v>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="55" t="s">
+        <v>122</v>
       </c>
       <c r="F84" s="28"/>
       <c r="G84" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I84" s="41" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J84" s="26" t="s">
         <v>23</v>
@@ -6397,19 +6461,19 @@
       <c r="M84" s="46"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B85" s="56"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="54"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="56"/>
       <c r="F85" s="28"/>
       <c r="G85" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I85" s="41" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J85" s="26" t="s">
         <v>23</v>
@@ -6419,19 +6483,19 @@
       <c r="M85" s="46"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="56"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="54"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="56"/>
       <c r="F86" s="28"/>
       <c r="G86" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J86" s="26" t="s">
         <v>23</v>
@@ -6441,19 +6505,19 @@
       <c r="M86" s="46"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="54"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="56"/>
       <c r="F87" s="28"/>
       <c r="G87" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H87" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I87" s="41" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J87" s="26" t="s">
         <v>23</v>
@@ -6463,19 +6527,19 @@
       <c r="M87" s="46"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="56"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="54"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="56"/>
       <c r="F88" s="28"/>
       <c r="G88" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I88" s="41" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J88" s="26" t="s">
         <v>23</v>
@@ -6485,19 +6549,19 @@
       <c r="M88" s="46"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B89" s="56"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="54"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="56"/>
       <c r="F89" s="28"/>
       <c r="G89" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H89" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I89" s="41" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J89" s="26" t="s">
         <v>23</v>
@@ -6507,19 +6571,19 @@
       <c r="M89" s="46"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B90" s="56"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="55"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="57"/>
       <c r="F90" s="28"/>
       <c r="G90" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H90" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I90" s="41" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J90" s="26" t="s">
         <v>23</v>
@@ -6529,21 +6593,21 @@
       <c r="M90" s="46"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B91" s="56"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
       <c r="E91" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F91" s="28"/>
       <c r="G91" s="20" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H91" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I91" s="41" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J91" s="26" t="s">
         <v>23</v>
@@ -6553,23 +6617,23 @@
       <c r="M91" s="46"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="56"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="53" t="s">
+      <c r="B92" s="58"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F92" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="F92" s="53" t="s">
+      <c r="G92" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G92" s="25" t="s">
-        <v>134</v>
-      </c>
       <c r="H92" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I92" s="41" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J92" s="26" t="s">
         <v>23</v>
@@ -6579,19 +6643,19 @@
       <c r="M92" s="25"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="56"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="54"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
       <c r="G93" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I93" s="41" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J93" s="26" t="s">
         <v>23</v>
@@ -6601,19 +6665,19 @@
       <c r="M93" s="25"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B94" s="56"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="55"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="57"/>
       <c r="G94" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I94" s="41" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J94" s="26" t="s">
         <v>23</v>
@@ -6623,21 +6687,21 @@
       <c r="M94" s="25"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B95" s="56"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="53" t="s">
+      <c r="B95" s="58"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="55" t="s">
         <v>31</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I95" s="41" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J95" s="26" t="s">
         <v>23</v>
@@ -6647,19 +6711,19 @@
       <c r="M95" s="25"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B96" s="56"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
       <c r="G96" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J96" s="26" t="s">
         <v>23</v>
@@ -6669,21 +6733,21 @@
       <c r="M96" s="25"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B97" s="56"/>
-      <c r="C97" s="56"/>
-      <c r="D97" s="53" t="s">
-        <v>139</v>
+      <c r="B97" s="58"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="55" t="s">
+        <v>138</v>
       </c>
       <c r="E97" s="22"/>
       <c r="F97" s="22"/>
       <c r="G97" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I97" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J97" s="26" t="s">
         <v>23</v>
@@ -6693,21 +6757,21 @@
       <c r="M97" s="25"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B98" s="56"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="53" t="s">
-        <v>133</v>
+      <c r="B98" s="58"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="55" t="s">
+        <v>132</v>
       </c>
       <c r="F98" s="22"/>
       <c r="G98" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I98" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J98" s="26" t="s">
         <v>23</v>
@@ -6717,19 +6781,19 @@
       <c r="M98" s="25"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B99" s="56"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
       <c r="F99" s="22"/>
       <c r="G99" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I99" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J99" s="26" t="s">
         <v>23</v>
@@ -6739,19 +6803,19 @@
       <c r="M99" s="25"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B100" s="56"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="56"/>
       <c r="F100" s="22"/>
       <c r="G100" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I100" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J100" s="26" t="s">
         <v>23</v>
@@ -6761,19 +6825,19 @@
       <c r="M100" s="25"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B101" s="56"/>
-      <c r="C101" s="56"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="55"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="57"/>
       <c r="F101" s="22"/>
       <c r="G101" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I101" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J101" s="26" t="s">
         <v>23</v>
@@ -6783,21 +6847,21 @@
       <c r="M101" s="25"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B102" s="56"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="53" t="s">
+      <c r="B102" s="58"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="55" t="s">
         <v>31</v>
       </c>
       <c r="F102" s="22"/>
       <c r="G102" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I102" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J102" s="26" t="s">
         <v>23</v>
@@ -6807,19 +6871,19 @@
       <c r="M102" s="25"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B103" s="56"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="56"/>
       <c r="F103" s="22"/>
       <c r="G103" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I103" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J103" s="26" t="s">
         <v>23</v>
@@ -6829,19 +6893,19 @@
       <c r="M103" s="25"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B104" s="56"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
       <c r="F104" s="22"/>
       <c r="G104" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I104" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J104" s="26" t="s">
         <v>23</v>
@@ -6851,19 +6915,19 @@
       <c r="M104" s="25"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B105" s="56"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="54"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
       <c r="F105" s="22"/>
       <c r="G105" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I105" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J105" s="26" t="s">
         <v>23</v>
@@ -6873,19 +6937,19 @@
       <c r="M105" s="25"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B106" s="56"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="55"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="57"/>
       <c r="F106" s="22"/>
       <c r="G106" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I106" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J106" s="26" t="s">
         <v>23</v>
@@ -6895,21 +6959,21 @@
       <c r="M106" s="25"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B107" s="56"/>
-      <c r="C107" s="56"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="58"/>
       <c r="D107" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
       <c r="G107" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I107" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J107" s="26" t="s">
         <v>23</v>
@@ -6919,23 +6983,23 @@
       <c r="M107" s="25"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B108" s="56"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="E108" s="53" t="s">
-        <v>133</v>
+      <c r="B108" s="58"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="55" t="s">
+        <v>132</v>
       </c>
       <c r="F108" s="22"/>
       <c r="G108" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I108" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J108" s="26" t="s">
         <v>23</v>
@@ -6945,19 +7009,19 @@
       <c r="M108" s="25"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B109" s="56"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="56"/>
       <c r="F109" s="22"/>
       <c r="G109" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I109" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J109" s="26" t="s">
         <v>23</v>
@@ -6967,19 +7031,19 @@
       <c r="M109" s="25"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B110" s="56"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="54"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="56"/>
       <c r="F110" s="22"/>
       <c r="G110" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I110" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J110" s="26" t="s">
         <v>23</v>
@@ -6989,19 +7053,19 @@
       <c r="M110" s="25"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B111" s="56"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="55"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="57"/>
       <c r="F111" s="22"/>
       <c r="G111" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I111" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J111" s="26" t="s">
         <v>23</v>
@@ -7011,21 +7075,21 @@
       <c r="M111" s="25"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B112" s="56"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="56" t="s">
+      <c r="B112" s="58"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="58" t="s">
         <v>31</v>
       </c>
       <c r="F112" s="22"/>
       <c r="G112" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I112" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J112" s="26" t="s">
         <v>23</v>
@@ -7035,19 +7099,19 @@
       <c r="M112" s="25"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B113" s="56"/>
-      <c r="C113" s="56"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="56"/>
+      <c r="B113" s="58"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="56"/>
+      <c r="E113" s="58"/>
       <c r="F113" s="22"/>
       <c r="G113" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I113" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J113" s="26" t="s">
         <v>23</v>
@@ -7057,19 +7121,19 @@
       <c r="M113" s="25"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B114" s="56"/>
-      <c r="C114" s="56"/>
-      <c r="D114" s="54"/>
-      <c r="E114" s="56"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="58"/>
       <c r="F114" s="22"/>
       <c r="G114" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I114" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J114" s="26" t="s">
         <v>23</v>
@@ -7079,19 +7143,19 @@
       <c r="M114" s="25"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B115" s="56"/>
-      <c r="C115" s="56"/>
-      <c r="D115" s="54"/>
-      <c r="E115" s="56"/>
+      <c r="B115" s="58"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="58"/>
       <c r="F115" s="22"/>
       <c r="G115" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I115" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J115" s="26" t="s">
         <v>23</v>
@@ -7101,19 +7165,19 @@
       <c r="M115" s="25"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B116" s="56"/>
-      <c r="C116" s="56"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="56"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="58"/>
       <c r="F116" s="22"/>
       <c r="G116" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I116" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J116" s="26" t="s">
         <v>23</v>
@@ -7123,19 +7187,19 @@
       <c r="M116" s="25"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B117" s="56"/>
-      <c r="C117" s="56"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="56"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="58"/>
       <c r="F117" s="22"/>
       <c r="G117" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I117" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J117" s="26" t="s">
         <v>23</v>
@@ -7145,19 +7209,19 @@
       <c r="M117" s="25"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B118" s="56"/>
-      <c r="C118" s="56"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="56"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="58"/>
       <c r="F118" s="22"/>
       <c r="G118" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I118" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J118" s="26" t="s">
         <v>23</v>
@@ -7167,23 +7231,23 @@
       <c r="M118" s="25"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B119" s="56"/>
-      <c r="C119" s="56"/>
-      <c r="D119" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="E119" s="56" t="s">
-        <v>133</v>
+      <c r="B119" s="58"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E119" s="58" t="s">
+        <v>132</v>
       </c>
       <c r="F119" s="22"/>
       <c r="G119" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I119" s="41" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J119" s="26" t="s">
         <v>23</v>
@@ -7193,19 +7257,19 @@
       <c r="M119" s="25"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B120" s="56"/>
-      <c r="C120" s="56"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="56"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="58"/>
       <c r="F120" s="22"/>
       <c r="G120" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I120" s="41" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J120" s="26" t="s">
         <v>23</v>
@@ -7215,19 +7279,19 @@
       <c r="M120" s="25"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B121" s="56"/>
-      <c r="C121" s="56"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="56"/>
+      <c r="B121" s="58"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="58"/>
       <c r="F121" s="22"/>
       <c r="G121" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I121" s="41" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J121" s="26" t="s">
         <v>23</v>
@@ -7237,21 +7301,21 @@
       <c r="M121" s="25"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B122" s="56"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="53" t="s">
+      <c r="B122" s="58"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="55" t="s">
         <v>31</v>
       </c>
       <c r="F122" s="22"/>
       <c r="G122" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I122" s="41" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J122" s="26" t="s">
         <v>23</v>
@@ -7261,19 +7325,19 @@
       <c r="M122" s="25"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B123" s="56"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="56"/>
       <c r="F123" s="22"/>
       <c r="G123" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I123" s="41" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J123" s="26" t="s">
         <v>23</v>
@@ -7283,19 +7347,19 @@
       <c r="M123" s="25"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B124" s="56"/>
-      <c r="C124" s="56"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="54"/>
+      <c r="B124" s="58"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="56"/>
       <c r="F124" s="22"/>
       <c r="G124" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I124" s="41" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J124" s="26" t="s">
         <v>23</v>
@@ -7305,19 +7369,19 @@
       <c r="M124" s="25"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B125" s="56"/>
-      <c r="C125" s="56"/>
-      <c r="D125" s="54"/>
-      <c r="E125" s="54"/>
+      <c r="B125" s="58"/>
+      <c r="C125" s="58"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="56"/>
       <c r="F125" s="22"/>
       <c r="G125" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I125" s="41" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J125" s="26" t="s">
         <v>23</v>
@@ -7327,19 +7391,19 @@
       <c r="M125" s="25"/>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B126" s="56"/>
-      <c r="C126" s="56"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="54"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="58"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="56"/>
       <c r="F126" s="22"/>
       <c r="G126" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I126" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J126" s="26" t="s">
         <v>23</v>
@@ -7349,19 +7413,19 @@
       <c r="M126" s="25"/>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B127" s="56"/>
-      <c r="C127" s="56"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="54"/>
+      <c r="B127" s="58"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="56"/>
       <c r="F127" s="22"/>
       <c r="G127" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I127" s="41" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J127" s="26" t="s">
         <v>23</v>
@@ -7371,19 +7435,19 @@
       <c r="M127" s="25"/>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B128" s="56"/>
-      <c r="C128" s="56"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="54"/>
+      <c r="B128" s="58"/>
+      <c r="C128" s="58"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="56"/>
       <c r="F128" s="22"/>
       <c r="G128" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I128" s="41" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J128" s="26" t="s">
         <v>23</v>
@@ -7393,19 +7457,19 @@
       <c r="M128" s="25"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B129" s="56"/>
-      <c r="C129" s="56"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="55"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="57"/>
       <c r="F129" s="22"/>
       <c r="G129" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I129" s="41" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J129" s="26" t="s">
         <v>23</v>
@@ -7455,6 +7519,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="18" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="17" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
+++ b/doc/02_wbs/homelearn_hybrid_list_v.0.1.xlsx
@@ -4028,7 +4028,7 @@
   <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
